--- a/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -764,34 +656,34 @@
         <v>1.00018621958964</v>
       </c>
       <c r="D3">
+        <v>1.000069836455231</v>
+      </c>
+      <c r="E3">
         <v>0.999720670292581</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>0.999720670292581</v>
+      </c>
+      <c r="G3">
+        <v>0.9999441338590285</v>
+      </c>
+      <c r="H3">
+        <v>0.999818378300051</v>
+      </c>
+      <c r="I3">
         <v>1.000069836455231</v>
       </c>
-      <c r="F3">
+      <c r="J3">
+        <v>0.9999399792333428</v>
+      </c>
+      <c r="K3">
+        <v>1.000103686643215</v>
+      </c>
+      <c r="L3">
         <v>1.00018621958964</v>
       </c>
-      <c r="G3">
-        <v>0.9999399792333428</v>
-      </c>
-      <c r="H3">
-        <v>1.000103686643215</v>
-      </c>
-      <c r="I3">
+      <c r="M3">
         <v>1.00018621958964</v>
-      </c>
-      <c r="J3">
-        <v>0.999720670292581</v>
-      </c>
-      <c r="K3">
-        <v>0.9999441338590286</v>
-      </c>
-      <c r="L3">
-        <v>1.000069836455231</v>
-      </c>
-      <c r="M3">
-        <v>0.999818378300051</v>
       </c>
       <c r="N3">
         <v>1.00018621958964</v>
@@ -824,7 +716,7 @@
         <v>0.9999815926035401</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -835,34 +727,34 @@
         <v>1.000359495831011</v>
       </c>
       <c r="D4">
+        <v>1.000134817007111</v>
+      </c>
+      <c r="E4">
         <v>0.9994607561731895</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0.9994607561731895</v>
+      </c>
+      <c r="G4">
+        <v>0.9998921514297636</v>
+      </c>
+      <c r="H4">
+        <v>0.9996493815667122</v>
+      </c>
+      <c r="I4">
         <v>1.000134817007111</v>
       </c>
-      <c r="F4">
+      <c r="J4">
+        <v>0.9998841291328039</v>
+      </c>
+      <c r="K4">
+        <v>1.000200166106374</v>
+      </c>
+      <c r="L4">
         <v>1.000359495831011</v>
       </c>
-      <c r="G4">
-        <v>0.9998841291328039</v>
-      </c>
-      <c r="H4">
-        <v>1.000200166106374</v>
-      </c>
-      <c r="I4">
+      <c r="M4">
         <v>1.000359495831011</v>
-      </c>
-      <c r="J4">
-        <v>0.9994607561731895</v>
-      </c>
-      <c r="K4">
-        <v>0.9998921514297636</v>
-      </c>
-      <c r="L4">
-        <v>1.000134817007111</v>
-      </c>
-      <c r="M4">
-        <v>0.9996493815667122</v>
       </c>
       <c r="N4">
         <v>1.000359495831011</v>
@@ -895,7 +787,7 @@
         <v>0.9999644642817596</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -906,34 +798,34 @@
         <v>1.000688932550158</v>
       </c>
       <c r="D5">
+        <v>1.000258357610484</v>
+      </c>
+      <c r="E5">
         <v>0.9989666085964711</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>0.9989666085964711</v>
+      </c>
+      <c r="G5">
+        <v>0.9997933230491625</v>
+      </c>
+      <c r="H5">
+        <v>0.9993280785013972</v>
+      </c>
+      <c r="I5">
         <v>1.000258357610484</v>
       </c>
-      <c r="F5">
+      <c r="J5">
+        <v>0.9997779454449937</v>
+      </c>
+      <c r="K5">
+        <v>1.000383589605399</v>
+      </c>
+      <c r="L5">
         <v>1.000688932550158</v>
       </c>
-      <c r="G5">
-        <v>0.9997779454449937</v>
-      </c>
-      <c r="H5">
-        <v>1.000383589605399</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
         <v>1.000688932550158</v>
-      </c>
-      <c r="J5">
-        <v>0.9989666085964711</v>
-      </c>
-      <c r="K5">
-        <v>0.9997933230491625</v>
-      </c>
-      <c r="L5">
-        <v>1.000258357610484</v>
-      </c>
-      <c r="M5">
-        <v>0.9993280785013972</v>
       </c>
       <c r="N5">
         <v>1.000688932550158</v>
@@ -966,7 +858,7 @@
         <v>0.9999318991210686</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -977,34 +869,34 @@
         <v>1.001010440393895</v>
       </c>
       <c r="D6">
+        <v>1.000378922958191</v>
+      </c>
+      <c r="E6">
         <v>0.9984843496263277</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0.9984843496263277</v>
+      </c>
+      <c r="G6">
+        <v>0.9996968682020483</v>
+      </c>
+      <c r="H6">
+        <v>0.9990145096937239</v>
+      </c>
+      <c r="I6">
         <v>1.000378922958191</v>
       </c>
-      <c r="F6">
+      <c r="J6">
+        <v>0.9996743183837665</v>
+      </c>
+      <c r="K6">
+        <v>1.000562606135889</v>
+      </c>
+      <c r="L6">
         <v>1.001010440393895</v>
       </c>
-      <c r="G6">
-        <v>0.9996743183837665</v>
-      </c>
-      <c r="H6">
-        <v>1.000562606135889</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
         <v>1.001010440393895</v>
-      </c>
-      <c r="J6">
-        <v>0.9984843496263277</v>
-      </c>
-      <c r="K6">
-        <v>0.9996968682020483</v>
-      </c>
-      <c r="L6">
-        <v>1.000378922958191</v>
-      </c>
-      <c r="M6">
-        <v>0.9990145096937239</v>
       </c>
       <c r="N6">
         <v>1.001010440393895</v>
@@ -1037,7 +929,7 @@
         <v>0.9999001172940041</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1048,34 +940,34 @@
         <v>1.000005525638838</v>
       </c>
       <c r="D7">
-        <v>0.9999917104381881</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="E7">
+        <v>0.9999917104381885</v>
+      </c>
+      <c r="F7">
+        <v>0.9999917104381885</v>
+      </c>
+      <c r="G7">
+        <v>0.9999983420385545</v>
+      </c>
+      <c r="H7">
+        <v>0.9999946101919112</v>
+      </c>
+      <c r="I7">
         <v>1.00000207576019</v>
       </c>
-      <c r="F7">
+      <c r="J7">
+        <v>0.9999982197340848</v>
+      </c>
+      <c r="K7">
+        <v>1.000003078535894</v>
+      </c>
+      <c r="L7">
         <v>1.000005525638838</v>
       </c>
-      <c r="G7">
-        <v>0.9999982197340845</v>
-      </c>
-      <c r="H7">
-        <v>1.000003078535894</v>
-      </c>
-      <c r="I7">
+      <c r="M7">
         <v>1.000005525638838</v>
-      </c>
-      <c r="J7">
-        <v>0.9999917104381881</v>
-      </c>
-      <c r="K7">
-        <v>0.9999983420385545</v>
-      </c>
-      <c r="L7">
-        <v>1.00000207576019</v>
-      </c>
-      <c r="M7">
-        <v>0.999994610191911</v>
       </c>
       <c r="N7">
         <v>1.000005525638838</v>
@@ -1084,7 +976,7 @@
         <v>1.00000207576019</v>
       </c>
       <c r="P7">
-        <v>0.999996893099189</v>
+        <v>0.9999968930991892</v>
       </c>
       <c r="Q7">
         <v>1.000000147747137</v>
@@ -1093,22 +985,22 @@
         <v>0.9999997706124054</v>
       </c>
       <c r="S7">
-        <v>0.9999973353108209</v>
+        <v>0.999997335310821</v>
       </c>
       <c r="T7">
-        <v>0.9999997706124054</v>
+        <v>0.9999997706124056</v>
       </c>
       <c r="U7">
-        <v>0.9999993828928252</v>
+        <v>0.9999993828928254</v>
       </c>
       <c r="V7">
         <v>1.000000611442028</v>
       </c>
       <c r="W7">
-        <v>0.9999994547622313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999994547622314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1119,34 +1011,34 @@
         <v>1.000002077815884</v>
       </c>
       <c r="D8">
-        <v>0.9999968821242884</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="E8">
+        <v>0.9999968821242886</v>
+      </c>
+      <c r="F8">
+        <v>0.9999968821242886</v>
+      </c>
+      <c r="G8">
+        <v>0.9999993762883826</v>
+      </c>
+      <c r="H8">
+        <v>0.99999797316089</v>
+      </c>
+      <c r="I8">
         <v>1.000000782842547</v>
       </c>
-      <c r="F8">
+      <c r="J8">
+        <v>0.9999993310209633</v>
+      </c>
+      <c r="K8">
+        <v>1.000001158867367</v>
+      </c>
+      <c r="L8">
         <v>1.000002077815884</v>
       </c>
-      <c r="G8">
-        <v>0.9999993310209633</v>
-      </c>
-      <c r="H8">
-        <v>1.000001158867367</v>
-      </c>
-      <c r="I8">
+      <c r="M8">
         <v>1.000002077815884</v>
-      </c>
-      <c r="J8">
-        <v>0.9999968821242884</v>
-      </c>
-      <c r="K8">
-        <v>0.9999993762883826</v>
-      </c>
-      <c r="L8">
-        <v>1.000000782842547</v>
-      </c>
-      <c r="M8">
-        <v>0.9999979731608898</v>
       </c>
       <c r="N8">
         <v>1.000002077815884</v>
@@ -1155,7 +1047,7 @@
         <v>1.000000782842547</v>
       </c>
       <c r="P8">
-        <v>0.9999988324834176</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="Q8">
         <v>1.000000056931755</v>
@@ -1164,7 +1056,7 @@
         <v>0.9999999142609065</v>
       </c>
       <c r="S8">
-        <v>0.9999989986625994</v>
+        <v>0.9999989986625996</v>
       </c>
       <c r="T8">
         <v>0.9999999142609065</v>
@@ -1176,10 +1068,10 @@
         <v>1.000000230323913</v>
       </c>
       <c r="W8">
-        <v>0.9999997956203586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999997956203587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1190,34 +1082,34 @@
         <v>0.9999810325528772</v>
       </c>
       <c r="D9">
+        <v>0.9999928906909888</v>
+      </c>
+      <c r="E9">
         <v>1.000028450715356</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>1.000028450715356</v>
+      </c>
+      <c r="G9">
+        <v>1.000005690046642</v>
+      </c>
+      <c r="H9">
+        <v>1.000018498686598</v>
+      </c>
+      <c r="I9">
         <v>0.9999928906909888</v>
       </c>
-      <c r="F9">
+      <c r="J9">
+        <v>1.000006114145661</v>
+      </c>
+      <c r="K9">
+        <v>0.9999894407552593</v>
+      </c>
+      <c r="L9">
         <v>0.9999810325528772</v>
       </c>
-      <c r="G9">
-        <v>1.000006114145661</v>
-      </c>
-      <c r="H9">
-        <v>0.9999894407552593</v>
-      </c>
-      <c r="I9">
+      <c r="M9">
         <v>0.9999810325528772</v>
-      </c>
-      <c r="J9">
-        <v>1.000028450715356</v>
-      </c>
-      <c r="K9">
-        <v>1.000005690046642</v>
-      </c>
-      <c r="L9">
-        <v>0.9999928906909888</v>
-      </c>
-      <c r="M9">
-        <v>1.000018498686598</v>
       </c>
       <c r="N9">
         <v>0.9999810325528772</v>
@@ -1250,7 +1142,7 @@
         <v>1.000001876035546</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1261,34 +1153,34 @@
         <v>0.9999789305173188</v>
       </c>
       <c r="D10">
+        <v>0.9999921032779158</v>
+      </c>
+      <c r="E10">
         <v>1.000031604123303</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>1.000031604123303</v>
+      </c>
+      <c r="G10">
+        <v>1.000006320064172</v>
+      </c>
+      <c r="H10">
+        <v>1.000020548938128</v>
+      </c>
+      <c r="I10">
         <v>0.9999921032779158</v>
       </c>
-      <c r="F10">
+      <c r="J10">
+        <v>1.000006792549905</v>
+      </c>
+      <c r="K10">
+        <v>0.9999882704260605</v>
+      </c>
+      <c r="L10">
         <v>0.9999789305173188</v>
       </c>
-      <c r="G10">
-        <v>1.000006792549905</v>
-      </c>
-      <c r="H10">
-        <v>0.9999882704260605</v>
-      </c>
-      <c r="I10">
+      <c r="M10">
         <v>0.9999789305173188</v>
-      </c>
-      <c r="J10">
-        <v>1.000031604123303</v>
-      </c>
-      <c r="K10">
-        <v>1.000006320064172</v>
-      </c>
-      <c r="L10">
-        <v>0.9999921032779158</v>
-      </c>
-      <c r="M10">
-        <v>1.000020548938128</v>
       </c>
       <c r="N10">
         <v>0.9999789305173188</v>
@@ -1321,7 +1213,7 @@
         <v>1.00000208414684</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1332,34 +1224,34 @@
         <v>0.9999151902425126</v>
       </c>
       <c r="D11">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="E11">
         <v>1.000127214607932</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>1.000127214607932</v>
+      </c>
+      <c r="G11">
+        <v>1.000025442955418</v>
+      </c>
+      <c r="H11">
+        <v>1.000082716098616</v>
+      </c>
+      <c r="I11">
         <v>0.9999681983447424</v>
       </c>
-      <c r="F11">
+      <c r="J11">
+        <v>1.000027334263847</v>
+      </c>
+      <c r="K11">
+        <v>0.9999527803774151</v>
+      </c>
+      <c r="L11">
         <v>0.9999151902425126</v>
       </c>
-      <c r="G11">
-        <v>1.000027334263847</v>
-      </c>
-      <c r="H11">
-        <v>0.9999527803774153</v>
-      </c>
-      <c r="I11">
+      <c r="M11">
         <v>0.9999151902425126</v>
-      </c>
-      <c r="J11">
-        <v>1.000127214607932</v>
-      </c>
-      <c r="K11">
-        <v>1.000025442955418</v>
-      </c>
-      <c r="L11">
-        <v>0.9999681983447424</v>
-      </c>
-      <c r="M11">
-        <v>1.000082716098616</v>
       </c>
       <c r="N11">
         <v>0.9999151902425126</v>
@@ -1392,7 +1284,7 @@
         <v>1.000008384404403</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1403,34 +1295,34 @@
         <v>1.000320241021014</v>
       </c>
       <c r="D12">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="E12">
         <v>0.9995196357321918</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="G12">
+        <v>0.9999039259782335</v>
+      </c>
+      <c r="H12">
+        <v>0.9996876591446778</v>
+      </c>
+      <c r="I12">
         <v>1.000120094216192</v>
       </c>
-      <c r="F12">
+      <c r="J12">
+        <v>0.9998967808468452</v>
+      </c>
+      <c r="K12">
+        <v>1.0001783130487</v>
+      </c>
+      <c r="L12">
         <v>1.000320241021014</v>
       </c>
-      <c r="G12">
-        <v>0.9998967808468452</v>
-      </c>
-      <c r="H12">
-        <v>1.0001783130487</v>
-      </c>
-      <c r="I12">
+      <c r="M12">
         <v>1.000320241021014</v>
-      </c>
-      <c r="J12">
-        <v>0.9995196357321918</v>
-      </c>
-      <c r="K12">
-        <v>0.9999039259782335</v>
-      </c>
-      <c r="L12">
-        <v>1.000120094216192</v>
-      </c>
-      <c r="M12">
-        <v>0.9996876591446778</v>
       </c>
       <c r="N12">
         <v>1.000320241021014</v>
@@ -1463,7 +1355,7 @@
         <v>0.9999683430255056</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1474,34 +1366,34 @@
         <v>1.000086877963037</v>
       </c>
       <c r="D13">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="E13">
         <v>0.9998696851522243</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="G13">
+        <v>0.9999739352794422</v>
+      </c>
+      <c r="H13">
+        <v>0.9999152752583488</v>
+      </c>
+      <c r="I13">
         <v>1.000032580109521</v>
       </c>
-      <c r="F13">
+      <c r="J13">
+        <v>0.9999719971649959</v>
+      </c>
+      <c r="K13">
+        <v>1.000048373023327</v>
+      </c>
+      <c r="L13">
         <v>1.000086877963037</v>
       </c>
-      <c r="G13">
-        <v>0.999971997164996</v>
-      </c>
-      <c r="H13">
-        <v>1.000048373023327</v>
-      </c>
-      <c r="I13">
+      <c r="M13">
         <v>1.000086877963037</v>
-      </c>
-      <c r="J13">
-        <v>0.9998696851522243</v>
-      </c>
-      <c r="K13">
-        <v>0.9999739352794422</v>
-      </c>
-      <c r="L13">
-        <v>1.000032580109521</v>
-      </c>
-      <c r="M13">
-        <v>0.9999152752583488</v>
       </c>
       <c r="N13">
         <v>1.000086877963037</v>
@@ -1513,7 +1405,7 @@
         <v>0.9999511326308728</v>
       </c>
       <c r="Q13">
-        <v>1.000002288637259</v>
+        <v>1.000002288637258</v>
       </c>
       <c r="R13">
         <v>0.9999963810749274</v>
@@ -1531,10 +1423,10 @@
         <v>1.000009603670563</v>
       </c>
       <c r="W13">
-        <v>0.9999914130075522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>0.9999914130075521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1545,34 +1437,34 @@
         <v>0.969532040033978</v>
       </c>
       <c r="D14">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="E14">
         <v>1.045701945667218</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="G14">
+        <v>1.00914037468098</v>
+      </c>
+      <c r="H14">
+        <v>1.029715670191089</v>
+      </c>
+      <c r="I14">
         <v>0.988574515860675</v>
       </c>
-      <c r="F14">
+      <c r="J14">
+        <v>1.009820251921844</v>
+      </c>
+      <c r="K14">
+        <v>0.983035846683217</v>
+      </c>
+      <c r="L14">
         <v>0.969532040033978</v>
       </c>
-      <c r="G14">
-        <v>1.009820251921844</v>
-      </c>
-      <c r="H14">
-        <v>0.983035846683217</v>
-      </c>
-      <c r="I14">
+      <c r="M14">
         <v>0.969532040033978</v>
-      </c>
-      <c r="J14">
-        <v>1.045701945667218</v>
-      </c>
-      <c r="K14">
-        <v>1.00914037468098</v>
-      </c>
-      <c r="L14">
-        <v>0.988574515860675</v>
-      </c>
-      <c r="M14">
-        <v>1.029715670191089</v>
       </c>
       <c r="N14">
         <v>0.969532040033978</v>
@@ -1605,7 +1497,7 @@
         <v>1.00301189511246</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1616,34 +1508,34 @@
         <v>0.9918791945001935</v>
       </c>
       <c r="D15">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="E15">
         <v>1.012181208237609</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="G15">
+        <v>1.002436247123406</v>
+      </c>
+      <c r="H15">
+        <v>1.007920291228564</v>
+      </c>
+      <c r="I15">
         <v>0.9969546944137678</v>
       </c>
-      <c r="F15">
+      <c r="J15">
+        <v>1.002617452885799</v>
+      </c>
+      <c r="K15">
+        <v>0.9954784415153435</v>
+      </c>
+      <c r="L15">
         <v>0.9918791945001935</v>
       </c>
-      <c r="G15">
-        <v>1.002617452885799</v>
-      </c>
-      <c r="H15">
-        <v>0.9954784415153435</v>
-      </c>
-      <c r="I15">
+      <c r="M15">
         <v>0.9918791945001935</v>
-      </c>
-      <c r="J15">
-        <v>1.012181208237609</v>
-      </c>
-      <c r="K15">
-        <v>1.002436247123406</v>
-      </c>
-      <c r="L15">
-        <v>0.9969546944137678</v>
-      </c>
-      <c r="M15">
-        <v>1.007920291228564</v>
       </c>
       <c r="N15">
         <v>0.9918791945001935</v>
@@ -1676,7 +1568,7 @@
         <v>1.000802778039807</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000767756064</v>
+        <v>1.003627743275687</v>
       </c>
       <c r="D16">
-        <v>0.9999988471686717</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="E16">
-        <v>1.000000291698404</v>
+        <v>0.9945583925282415</v>
       </c>
       <c r="F16">
-        <v>1.000000767756064</v>
+        <v>0.9945583925282415</v>
       </c>
       <c r="G16">
-        <v>0.9999997532448966</v>
+        <v>0.9989116771317187</v>
       </c>
       <c r="H16">
-        <v>1.000000429511621</v>
+        <v>0.9964618331430773</v>
       </c>
       <c r="I16">
-        <v>1.000000767756064</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="J16">
-        <v>0.9999988471686717</v>
+        <v>0.9988307242068957</v>
       </c>
       <c r="K16">
-        <v>0.999999769380299</v>
+        <v>1.002019884548611</v>
       </c>
       <c r="L16">
-        <v>1.000000291698404</v>
+        <v>1.003627743275687</v>
       </c>
       <c r="M16">
-        <v>0.999999250589936</v>
+        <v>1.003627743275687</v>
       </c>
       <c r="N16">
-        <v>1.000000767756064</v>
+        <v>1.003627743275687</v>
       </c>
       <c r="O16">
-        <v>1.000000291698404</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="P16">
-        <v>0.9999995694335377</v>
+        <v>0.9979594027239296</v>
       </c>
       <c r="Q16">
-        <v>1.00000002247165</v>
+        <v>1.000095568563257</v>
       </c>
       <c r="R16">
-        <v>0.9999999688743797</v>
+        <v>0.9998488495745154</v>
       </c>
       <c r="S16">
-        <v>0.9999996307039907</v>
+        <v>0.9982498432182516</v>
       </c>
       <c r="T16">
-        <v>0.9999999688743797</v>
+        <v>0.9998488495745154</v>
       </c>
       <c r="U16">
-        <v>0.9999999149670089</v>
+        <v>0.9995943182326105</v>
       </c>
       <c r="V16">
-        <v>1.00000008552482</v>
+        <v>1.000401003241226</v>
       </c>
       <c r="W16">
-        <v>0.999999925131037</v>
+        <v>0.9996413850841832</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284515201</v>
+        <v>1.002953616157175</v>
       </c>
       <c r="D17">
-        <v>0.9999755728388374</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="E17">
-        <v>1.000006110863086</v>
+        <v>0.9955695809655793</v>
       </c>
       <c r="F17">
-        <v>1.000016284515201</v>
+        <v>0.9955695809655793</v>
       </c>
       <c r="G17">
-        <v>0.9999947517045973</v>
+        <v>0.9991139150597871</v>
       </c>
       <c r="H17">
-        <v>1.000009069157193</v>
+        <v>0.9971193145318249</v>
       </c>
       <c r="I17">
-        <v>1.000016284515201</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="J17">
-        <v>0.9999755728388374</v>
+        <v>0.999048006102939</v>
       </c>
       <c r="K17">
-        <v>0.9999951147354407</v>
+        <v>1.001644538502674</v>
       </c>
       <c r="L17">
-        <v>1.000006110863086</v>
+        <v>1.002953616157175</v>
       </c>
       <c r="M17">
-        <v>0.9999841174356137</v>
+        <v>1.002953616157175</v>
       </c>
       <c r="N17">
-        <v>1.000016284515201</v>
+        <v>1.002953616157175</v>
       </c>
       <c r="O17">
-        <v>1.000006110863086</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="P17">
-        <v>0.9999908418509615</v>
+        <v>0.9983385970729649</v>
       </c>
       <c r="Q17">
-        <v>1.000000431283842</v>
+        <v>1.000077809641645</v>
       </c>
       <c r="R17">
-        <v>0.9999993227390416</v>
+        <v>0.9998769367677015</v>
       </c>
       <c r="S17">
-        <v>0.9999921451355068</v>
+        <v>0.9985750667496229</v>
       </c>
       <c r="T17">
-        <v>0.9999993227390416</v>
+        <v>0.9998769367677015</v>
       </c>
       <c r="U17">
-        <v>0.9999981799804305</v>
+        <v>0.9996697041015108</v>
       </c>
       <c r="V17">
-        <v>1.000001800887385</v>
+        <v>1.000326486512644</v>
       </c>
       <c r="W17">
-        <v>0.9999983915141319</v>
+        <v>0.9997080247100849</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057334495987</v>
+        <v>1.001569431637892</v>
       </c>
       <c r="D18">
-        <v>0.9999139972541674</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="E18">
-        <v>1.000021505837732</v>
+        <v>0.9976458525525063</v>
       </c>
       <c r="F18">
-        <v>1.000057334495987</v>
+        <v>0.9976458525525063</v>
       </c>
       <c r="G18">
-        <v>0.9999815186970012</v>
+        <v>0.999529170829781</v>
       </c>
       <c r="H18">
-        <v>1.000031927205301</v>
+        <v>0.9984693208881189</v>
       </c>
       <c r="I18">
-        <v>1.000057334495987</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="J18">
-        <v>0.9999139972541674</v>
+        <v>0.9994941483100979</v>
       </c>
       <c r="K18">
-        <v>0.9999827978303153</v>
+        <v>1.000873844102239</v>
       </c>
       <c r="L18">
-        <v>1.000021505837732</v>
+        <v>1.001569431637892</v>
       </c>
       <c r="M18">
-        <v>0.9999440800137587</v>
+        <v>1.001569431637892</v>
       </c>
       <c r="N18">
-        <v>1.000057334495987</v>
+        <v>1.001569431637892</v>
       </c>
       <c r="O18">
-        <v>1.000021505837732</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="P18">
-        <v>0.99996775154595</v>
+        <v>0.9991171971091967</v>
       </c>
       <c r="Q18">
-        <v>1.000001512267367</v>
+        <v>1.000041344987992</v>
       </c>
       <c r="R18">
-        <v>0.9999976125292956</v>
+        <v>0.9999346086187618</v>
       </c>
       <c r="S18">
-        <v>0.9999723405963005</v>
+        <v>0.999242847509497</v>
       </c>
       <c r="T18">
-        <v>0.9999976125292954</v>
+        <v>0.9999346086187618</v>
       </c>
       <c r="U18">
-        <v>0.9999935890712219</v>
+        <v>0.9998244935415959</v>
       </c>
       <c r="V18">
-        <v>1.000006338156175</v>
+        <v>1.000173481160855</v>
       </c>
       <c r="W18">
-        <v>0.9999943333964995</v>
+        <v>0.9998448564565512</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="D19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="E19">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="F19">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="G19">
+        <v>0.9994587657335776</v>
+      </c>
+      <c r="H19">
+        <v>0.9982404334204221</v>
+      </c>
+      <c r="I19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="J19">
+        <v>0.9994185073283159</v>
+      </c>
+      <c r="K19">
+        <v>1.001004510039065</v>
+      </c>
+      <c r="L19">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="M19">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="N19">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="O19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="P19">
+        <v>0.9989851914883281</v>
+      </c>
+      <c r="Q19">
+        <v>1.000047528679024</v>
+      </c>
+      <c r="R19">
+        <v>0.9999248324366778</v>
+      </c>
+      <c r="S19">
+        <v>0.9991296301016573</v>
+      </c>
+      <c r="T19">
+        <v>0.9999248324366778</v>
+      </c>
+      <c r="U19">
+        <v>0.9997982511595873</v>
+      </c>
+      <c r="V19">
+        <v>1.000199423794345</v>
+      </c>
+      <c r="W19">
+        <v>0.9998216579826432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="D20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="E20">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="F20">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="G20">
+        <v>0.999999769380299</v>
+      </c>
+      <c r="H20">
+        <v>0.999999250589936</v>
+      </c>
+      <c r="I20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="J20">
+        <v>0.9999997532448964</v>
+      </c>
+      <c r="K20">
+        <v>1.000000429511621</v>
+      </c>
+      <c r="L20">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="M20">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="N20">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="O20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="P20">
+        <v>0.9999995694335377</v>
+      </c>
+      <c r="Q20">
+        <v>1.00000002247165</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999688743797</v>
+      </c>
+      <c r="S20">
+        <v>0.9999996307039907</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999688743797</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999149670089</v>
+      </c>
+      <c r="V20">
+        <v>1.00000008552482</v>
+      </c>
+      <c r="W20">
+        <v>0.999999925131037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="D21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="E21">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="F21">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="G21">
+        <v>0.9999951147354407</v>
+      </c>
+      <c r="H21">
+        <v>0.9999841174356137</v>
+      </c>
+      <c r="I21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="J21">
+        <v>0.9999947517045974</v>
+      </c>
+      <c r="K21">
+        <v>1.000009069157193</v>
+      </c>
+      <c r="L21">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="M21">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="N21">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="O21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="P21">
+        <v>0.9999908418509618</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000431283842</v>
+      </c>
+      <c r="R21">
+        <v>0.9999993227390416</v>
+      </c>
+      <c r="S21">
+        <v>0.9999921451355069</v>
+      </c>
+      <c r="T21">
+        <v>0.9999993227390416</v>
+      </c>
+      <c r="U21">
+        <v>0.9999981799804305</v>
+      </c>
+      <c r="V21">
+        <v>1.000001800887385</v>
+      </c>
+      <c r="W21">
+        <v>0.9999983915141319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="D22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="E22">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="F22">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="G22">
+        <v>0.9999827978303153</v>
+      </c>
+      <c r="H22">
+        <v>0.9999440800137583</v>
+      </c>
+      <c r="I22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="J22">
+        <v>0.9999815186970012</v>
+      </c>
+      <c r="K22">
+        <v>1.000031927205301</v>
+      </c>
+      <c r="L22">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="M22">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="N22">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="O22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="P22">
+        <v>0.99996775154595</v>
+      </c>
+      <c r="Q22">
+        <v>1.000001512267367</v>
+      </c>
+      <c r="R22">
+        <v>0.9999976125292956</v>
+      </c>
+      <c r="S22">
+        <v>0.9999723405963005</v>
+      </c>
+      <c r="T22">
+        <v>0.9999976125292956</v>
+      </c>
+      <c r="U22">
+        <v>0.999993589071222</v>
+      </c>
+      <c r="V22">
+        <v>1.000006338156175</v>
+      </c>
+      <c r="W22">
+        <v>0.9999943333964995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000134320971912</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.000050377160312</v>
+      </c>
+      <c r="E23">
         <v>0.9997985203512424</v>
       </c>
-      <c r="E19">
+      <c r="F23">
+        <v>0.9997985203512424</v>
+      </c>
+      <c r="G23">
+        <v>0.999959704693303</v>
+      </c>
+      <c r="H23">
+        <v>0.9998689964591353</v>
+      </c>
+      <c r="I23">
         <v>1.000050377160312</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.9999567074473761</v>
+      </c>
+      <c r="K23">
+        <v>1.000074789357944</v>
+      </c>
+      <c r="L23">
         <v>1.000134320971912</v>
       </c>
-      <c r="G19">
-        <v>0.9999567074473761</v>
-      </c>
-      <c r="H19">
-        <v>1.000074789357944</v>
-      </c>
-      <c r="I19">
+      <c r="M23">
         <v>1.000134320971912</v>
       </c>
-      <c r="J19">
-        <v>0.9997985203512424</v>
-      </c>
-      <c r="K19">
-        <v>0.999959704693303</v>
-      </c>
-      <c r="L19">
+      <c r="N23">
+        <v>1.000134320971912</v>
+      </c>
+      <c r="O23">
         <v>1.000050377160312</v>
       </c>
-      <c r="M19">
-        <v>0.9998689964591353</v>
-      </c>
-      <c r="N19">
-        <v>1.000134320971912</v>
-      </c>
-      <c r="O19">
-        <v>1.000050377160312</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999244487557772</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000003542303844</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999944061611555</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999352016529768</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999944061611554</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999849814827106</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000014849380551</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999867242001921</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 3]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00018621958964</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="D3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="E3">
-        <v>0.999720670292581</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="F3">
-        <v>0.999720670292581</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="G3">
-        <v>0.9999441338590285</v>
+        <v>0.9994104319092214</v>
       </c>
       <c r="H3">
-        <v>0.999818378300051</v>
+        <v>0.9980832996253617</v>
       </c>
       <c r="I3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="J3">
-        <v>0.9999399792333428</v>
+        <v>0.9993665807492768</v>
       </c>
       <c r="K3">
-        <v>1.000103686643215</v>
+        <v>1.001094214423631</v>
       </c>
       <c r="L3">
-        <v>1.00018621958964</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="M3">
-        <v>1.00018621958964</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="N3">
-        <v>1.00018621958964</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="O3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="P3">
-        <v>0.9998952533739061</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="Q3">
-        <v>1.000004907844287</v>
+        <v>1.000051771732708</v>
       </c>
       <c r="R3">
-        <v>0.9999922421124839</v>
+        <v>0.9999181173631126</v>
       </c>
       <c r="S3">
-        <v>0.9999101619937183</v>
+        <v>0.9990519022214213</v>
       </c>
       <c r="T3">
-        <v>0.9999922421124841</v>
+        <v>0.9999181173631126</v>
       </c>
       <c r="U3">
-        <v>0.9999791763926987</v>
+        <v>0.9997802332096537</v>
       </c>
       <c r="V3">
-        <v>1.000020585032087</v>
+        <v>1.000217231802593</v>
       </c>
       <c r="W3">
-        <v>0.9999815926035401</v>
+        <v>0.999805730189121</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359495831011</v>
+        <v>1.001796264370112</v>
       </c>
       <c r="D4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="E4">
-        <v>0.9994607561731895</v>
+        <v>0.997305604928253</v>
       </c>
       <c r="F4">
-        <v>0.9994607561731895</v>
+        <v>0.997305604928253</v>
       </c>
       <c r="G4">
-        <v>0.9998921514297636</v>
+        <v>0.9994611202851279</v>
       </c>
       <c r="H4">
-        <v>0.9996493815667122</v>
+        <v>0.9982480889554598</v>
       </c>
       <c r="I4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="J4">
-        <v>0.9998841291328039</v>
+        <v>0.9994210394465165</v>
       </c>
       <c r="K4">
-        <v>1.000200166106374</v>
+        <v>1.001000138529626</v>
       </c>
       <c r="L4">
-        <v>1.000359495831011</v>
+        <v>1.001796264370112</v>
       </c>
       <c r="M4">
-        <v>1.000359495831011</v>
+        <v>1.001796264370112</v>
       </c>
       <c r="N4">
-        <v>1.000359495831011</v>
+        <v>1.001796264370112</v>
       </c>
       <c r="O4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="P4">
-        <v>0.9997977865901504</v>
+        <v>0.9989896035100623</v>
       </c>
       <c r="Q4">
-        <v>1.000009473069958</v>
+        <v>1.000047320769194</v>
       </c>
       <c r="R4">
-        <v>0.9999850230037707</v>
+        <v>0.9999251571300788</v>
       </c>
       <c r="S4">
-        <v>0.9998265674377015</v>
+        <v>0.9991334154888803</v>
       </c>
       <c r="T4">
-        <v>0.9999850230037707</v>
+        <v>0.9999251571300789</v>
       </c>
       <c r="U4">
-        <v>0.999959799536029</v>
+        <v>0.9997991277091883</v>
       </c>
       <c r="V4">
-        <v>1.000039738795026</v>
+        <v>1.000198555041373</v>
       </c>
       <c r="W4">
-        <v>0.9999644642817596</v>
+        <v>0.9998224325873548</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688932550158</v>
+        <v>1.002260937331535</v>
       </c>
       <c r="D5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="E5">
-        <v>0.9989666085964711</v>
+        <v>0.9966085994070083</v>
       </c>
       <c r="F5">
-        <v>0.9989666085964711</v>
+        <v>0.9966085994070083</v>
       </c>
       <c r="G5">
-        <v>0.9997933230491625</v>
+        <v>0.9993217218328843</v>
       </c>
       <c r="H5">
-        <v>0.9993280785013972</v>
+        <v>0.9977948936927222</v>
       </c>
       <c r="I5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="J5">
-        <v>0.9997779454449937</v>
+        <v>0.9992712650943398</v>
       </c>
       <c r="K5">
-        <v>1.000383589605399</v>
+        <v>1.001258867277628</v>
       </c>
       <c r="L5">
-        <v>1.000688932550158</v>
+        <v>1.002260937331535</v>
       </c>
       <c r="M5">
-        <v>1.000688932550158</v>
+        <v>1.002260937331535</v>
       </c>
       <c r="N5">
-        <v>1.000688932550158</v>
+        <v>1.002260937331535</v>
       </c>
       <c r="O5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="P5">
-        <v>0.9996124831034776</v>
+        <v>0.998728227951482</v>
       </c>
       <c r="Q5">
-        <v>1.000018151527739</v>
+        <v>1.000059560795148</v>
       </c>
       <c r="R5">
-        <v>0.9999712995857042</v>
+        <v>0.999905797744833</v>
       </c>
       <c r="S5">
-        <v>0.9996676372173163</v>
+        <v>0.9989092403324346</v>
       </c>
       <c r="T5">
-        <v>0.9999712995857042</v>
+        <v>0.999905797744833</v>
       </c>
       <c r="U5">
-        <v>0.9999229610505266</v>
+        <v>0.9997471645822098</v>
       </c>
       <c r="V5">
-        <v>1.000076155350453</v>
+        <v>1.000249919132075</v>
       </c>
       <c r="W5">
-        <v>0.9999318991210686</v>
+        <v>0.9997764997035037</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010440393895</v>
+        <v>1.002507116875</v>
       </c>
       <c r="D6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="E6">
-        <v>0.9984843496263277</v>
+        <v>0.9962393444318173</v>
       </c>
       <c r="F6">
-        <v>0.9984843496263277</v>
+        <v>0.9962393444318173</v>
       </c>
       <c r="G6">
-        <v>0.9996968682020483</v>
+        <v>0.9992478687499995</v>
       </c>
       <c r="H6">
-        <v>0.9990145096937239</v>
+        <v>0.9975547960795454</v>
       </c>
       <c r="I6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="J6">
-        <v>0.9996743183837665</v>
+        <v>0.999191925454545</v>
       </c>
       <c r="K6">
-        <v>1.000562606135889</v>
+        <v>1.001395927386363</v>
       </c>
       <c r="L6">
-        <v>1.001010440393895</v>
+        <v>1.002507116875</v>
       </c>
       <c r="M6">
-        <v>1.001010440393895</v>
+        <v>1.002507116875</v>
       </c>
       <c r="N6">
-        <v>1.001010440393895</v>
+        <v>1.002507116875</v>
       </c>
       <c r="O6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="P6">
-        <v>0.9994316362922593</v>
+        <v>0.9985897593749995</v>
       </c>
       <c r="Q6">
-        <v>1.000026620670979</v>
+        <v>1.000066049886363</v>
       </c>
       <c r="R6">
-        <v>0.9999579043261378</v>
+        <v>0.999895545208333</v>
       </c>
       <c r="S6">
-        <v>0.9995125303227618</v>
+        <v>0.9987904814015147</v>
       </c>
       <c r="T6">
-        <v>0.9999579043261378</v>
+        <v>0.9998955452083331</v>
       </c>
       <c r="U6">
-        <v>0.9998870078405451</v>
+        <v>0.9997196402698861</v>
       </c>
       <c r="V6">
-        <v>1.000111694351215</v>
+        <v>1.000277135590909</v>
       </c>
       <c r="W6">
-        <v>0.9999001172940041</v>
+        <v>0.9997521659517042</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000005525638838</v>
+        <v>1.003735471174231</v>
       </c>
       <c r="D7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="E7">
-        <v>0.9999917104381885</v>
+        <v>0.9943968035628481</v>
       </c>
       <c r="F7">
-        <v>0.9999917104381885</v>
+        <v>0.9943968035628481</v>
       </c>
       <c r="G7">
-        <v>0.9999983420385545</v>
+        <v>0.9988793590613363</v>
       </c>
       <c r="H7">
-        <v>0.9999946101919112</v>
+        <v>0.996356766019255</v>
       </c>
       <c r="I7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="J7">
-        <v>0.9999982197340848</v>
+        <v>0.9987960003713455</v>
       </c>
       <c r="K7">
-        <v>1.000003078535894</v>
+        <v>1.002079865925083</v>
       </c>
       <c r="L7">
-        <v>1.000005525638838</v>
+        <v>1.003735471174231</v>
       </c>
       <c r="M7">
-        <v>1.000005525638838</v>
+        <v>1.003735471174231</v>
       </c>
       <c r="N7">
-        <v>1.000005525638838</v>
+        <v>1.003735471174231</v>
       </c>
       <c r="O7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="P7">
-        <v>0.9999968930991892</v>
+        <v>0.997898807848842</v>
       </c>
       <c r="Q7">
-        <v>1.000000147747137</v>
+        <v>1.000098406253091</v>
       </c>
       <c r="R7">
-        <v>0.9999997706124054</v>
+        <v>0.9998443622906383</v>
       </c>
       <c r="S7">
-        <v>0.999997335310821</v>
+        <v>0.9981978720230099</v>
       </c>
       <c r="T7">
-        <v>0.9999997706124056</v>
+        <v>0.9998443622906383</v>
       </c>
       <c r="U7">
-        <v>0.9999993828928254</v>
+        <v>0.9995822718108152</v>
       </c>
       <c r="V7">
-        <v>1.000000611442028</v>
+        <v>1.000412911683498</v>
       </c>
       <c r="W7">
-        <v>0.9999994547622314</v>
+        <v>0.9996307362979713</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000002077815884</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="D8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="E8">
-        <v>0.9999968821242886</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="F8">
-        <v>0.9999968821242886</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="G8">
-        <v>0.9999993762883826</v>
+        <v>0.9989027489004727</v>
       </c>
       <c r="H8">
-        <v>0.99999797316089</v>
+        <v>0.9964328069176354</v>
       </c>
       <c r="I8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="J8">
-        <v>0.9999993310209633</v>
+        <v>0.9988211298422112</v>
       </c>
       <c r="K8">
-        <v>1.000001158867367</v>
+        <v>1.002036455582161</v>
       </c>
       <c r="L8">
-        <v>1.000002077815884</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="M8">
-        <v>1.000002077815884</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="N8">
-        <v>1.000002077815884</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="O8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="P8">
-        <v>0.9999988324834177</v>
+        <v>0.9979426637343749</v>
       </c>
       <c r="Q8">
-        <v>1.000000056931755</v>
+        <v>1.000096352383918</v>
       </c>
       <c r="R8">
-        <v>0.9999999142609065</v>
+        <v>0.9998476108769211</v>
       </c>
       <c r="S8">
-        <v>0.9999989986625996</v>
+        <v>0.9982354857703203</v>
       </c>
       <c r="T8">
-        <v>0.9999999142609065</v>
+        <v>0.9998476108769211</v>
       </c>
       <c r="U8">
-        <v>0.9999997684509208</v>
+        <v>0.9995909906182436</v>
       </c>
       <c r="V8">
-        <v>1.000000230323913</v>
+        <v>1.000404293526998</v>
       </c>
       <c r="W8">
-        <v>0.9999997956203587</v>
+        <v>0.9996384435998585</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999810325528772</v>
+        <v>1.003637021954054</v>
       </c>
       <c r="D9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="E9">
-        <v>1.000028450715356</v>
+        <v>0.9945444774587029</v>
       </c>
       <c r="F9">
-        <v>1.000028450715356</v>
+        <v>0.9945444774587029</v>
       </c>
       <c r="G9">
-        <v>1.000005690046642</v>
+        <v>0.9989088938815858</v>
       </c>
       <c r="H9">
-        <v>1.000018498686598</v>
+        <v>0.9964527844375392</v>
       </c>
       <c r="I9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="J9">
-        <v>1.000006114145661</v>
+        <v>0.998827731891806</v>
       </c>
       <c r="K9">
-        <v>0.9999894407552593</v>
+        <v>1.002025050870626</v>
       </c>
       <c r="L9">
-        <v>0.9999810325528772</v>
+        <v>1.003637021954054</v>
       </c>
       <c r="M9">
-        <v>0.9999810325528772</v>
+        <v>1.003637021954054</v>
       </c>
       <c r="N9">
-        <v>0.9999810325528772</v>
+        <v>1.003637021954054</v>
       </c>
       <c r="O9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="P9">
-        <v>1.000010670703172</v>
+        <v>0.9979541855527921</v>
       </c>
       <c r="Q9">
-        <v>0.9999995024183248</v>
+        <v>1.000095812769344</v>
       </c>
       <c r="R9">
-        <v>1.000000791319741</v>
+        <v>0.9998484643532125</v>
       </c>
       <c r="S9">
-        <v>1.000009151850668</v>
+        <v>0.9982453676657967</v>
       </c>
       <c r="T9">
-        <v>1.000000791319741</v>
+        <v>0.9998484643532125</v>
       </c>
       <c r="U9">
-        <v>1.000002122026221</v>
+        <v>0.999593281237861</v>
       </c>
       <c r="V9">
-        <v>0.9999979041315518</v>
+        <v>1.0004020293811</v>
       </c>
       <c r="W9">
-        <v>1.000001876035546</v>
+        <v>0.9996404684735096</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999789305173188</v>
+        <v>1.00316711034885</v>
       </c>
       <c r="D10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="E10">
-        <v>1.000031604123303</v>
+        <v>0.9952493453430763</v>
       </c>
       <c r="F10">
-        <v>1.000031604123303</v>
+        <v>0.9952493453430763</v>
       </c>
       <c r="G10">
-        <v>1.000006320064172</v>
+        <v>0.9990498676326115</v>
       </c>
       <c r="H10">
-        <v>1.000020548938128</v>
+        <v>0.9969110935530409</v>
       </c>
       <c r="I10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="J10">
-        <v>1.000006792549905</v>
+        <v>0.9989791907208314</v>
       </c>
       <c r="K10">
-        <v>0.9999882704260605</v>
+        <v>1.001763410407268</v>
       </c>
       <c r="L10">
-        <v>0.9999789305173188</v>
+        <v>1.00316711034885</v>
       </c>
       <c r="M10">
-        <v>0.9999789305173188</v>
+        <v>1.00316711034885</v>
       </c>
       <c r="N10">
-        <v>0.9999789305173188</v>
+        <v>1.00316711034885</v>
       </c>
       <c r="O10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="P10">
-        <v>1.00001185370061</v>
+        <v>0.9982185109228876</v>
       </c>
       <c r="Q10">
-        <v>0.9999994479139104</v>
+        <v>1.000083433611765</v>
       </c>
       <c r="R10">
-        <v>1.000000879306179</v>
+        <v>0.9998680440648752</v>
       </c>
       <c r="S10">
-        <v>1.000010166650375</v>
+        <v>0.9984720708555356</v>
       </c>
       <c r="T10">
-        <v>1.000000879306179</v>
+        <v>0.9998680440648752</v>
       </c>
       <c r="U10">
-        <v>1.000002357617111</v>
+        <v>0.9996458307288643</v>
       </c>
       <c r="V10">
-        <v>0.9999976721971523</v>
+        <v>1.000350086652861</v>
       </c>
       <c r="W10">
-        <v>1.00000208414684</v>
+        <v>0.9996869213763846</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999151902425126</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="D11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="E11">
-        <v>1.000127214607932</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="F11">
-        <v>1.000127214607932</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="G11">
-        <v>1.000025442955418</v>
+        <v>0.9999350254851215</v>
       </c>
       <c r="H11">
-        <v>1.000082716098616</v>
+        <v>0.9997887664999148</v>
       </c>
       <c r="I11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="J11">
-        <v>1.000027334263847</v>
+        <v>0.9999301932228801</v>
       </c>
       <c r="K11">
-        <v>0.9999527803774151</v>
+        <v>1.000120591847271</v>
       </c>
       <c r="L11">
-        <v>0.9999151902425126</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="M11">
-        <v>0.9999151902425126</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="N11">
-        <v>0.9999151902425126</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="O11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="P11">
-        <v>1.000047706476337</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="Q11">
-        <v>0.9999977663042946</v>
+        <v>1.000005707722003</v>
       </c>
       <c r="R11">
-        <v>1.000003534398396</v>
+        <v>0.999990976897756</v>
       </c>
       <c r="S11">
-        <v>1.00004091573884</v>
+        <v>0.9998955143989416</v>
       </c>
       <c r="T11">
-        <v>1.000003534398396</v>
+        <v>0.9999909768977561</v>
       </c>
       <c r="U11">
-        <v>1.000009484364758</v>
+        <v>0.9999757809790371</v>
       </c>
       <c r="V11">
-        <v>0.9999906255403094</v>
+        <v>1.000023940927094</v>
       </c>
       <c r="W11">
-        <v>1.000008384404403</v>
+        <v>0.9999785912461978</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000320241021014</v>
+        <v>1.000089170645523</v>
       </c>
       <c r="D12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="E12">
-        <v>0.9995196357321918</v>
+        <v>0.9998662430841586</v>
       </c>
       <c r="F12">
-        <v>0.9995196357321918</v>
+        <v>0.9998662430841586</v>
       </c>
       <c r="G12">
-        <v>0.9999039259782335</v>
+        <v>0.9999732484785141</v>
       </c>
       <c r="H12">
-        <v>0.9996876591446778</v>
+        <v>0.9999130305402997</v>
       </c>
       <c r="I12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="J12">
-        <v>0.9998967808468452</v>
+        <v>0.9999712596887325</v>
       </c>
       <c r="K12">
-        <v>1.0001783130487</v>
+        <v>1.000049651097123</v>
       </c>
       <c r="L12">
-        <v>1.000320241021014</v>
+        <v>1.000089170645523</v>
       </c>
       <c r="M12">
-        <v>1.000320241021014</v>
+        <v>1.000089170645523</v>
       </c>
       <c r="N12">
-        <v>1.000320241021014</v>
+        <v>1.000089170645523</v>
       </c>
       <c r="O12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="P12">
-        <v>0.9998198649741917</v>
+        <v>0.9999498429562514</v>
       </c>
       <c r="Q12">
-        <v>1.000008437531518</v>
+        <v>1.000002351258538</v>
       </c>
       <c r="R12">
-        <v>0.9999866569897993</v>
+        <v>0.9999962855193422</v>
       </c>
       <c r="S12">
-        <v>0.9998455035984096</v>
+        <v>0.9999569818670784</v>
       </c>
       <c r="T12">
-        <v>0.9999866569897993</v>
+        <v>0.9999962855193422</v>
       </c>
       <c r="U12">
-        <v>0.9999641879540607</v>
+        <v>0.9999900290616897</v>
       </c>
       <c r="V12">
-        <v>1.000035398567451</v>
+        <v>1.000009857378456</v>
       </c>
       <c r="W12">
-        <v>0.9999683430255056</v>
+        <v>0.9999911861488799</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000086877963037</v>
+        <v>1.000140381093967</v>
       </c>
       <c r="D13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="E13">
-        <v>0.9998696851522243</v>
+        <v>0.9997894311859192</v>
       </c>
       <c r="F13">
-        <v>0.9998696851522243</v>
+        <v>0.9997894311859192</v>
       </c>
       <c r="G13">
-        <v>0.9999739352794422</v>
+        <v>0.9999578884665916</v>
       </c>
       <c r="H13">
-        <v>0.9999152752583488</v>
+        <v>0.9998630851358823</v>
       </c>
       <c r="I13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="J13">
-        <v>0.9999719971649959</v>
+        <v>0.999954750546503</v>
       </c>
       <c r="K13">
-        <v>1.000048373023327</v>
+        <v>1.000078165048622</v>
       </c>
       <c r="L13">
-        <v>1.000086877963037</v>
+        <v>1.000140381093967</v>
       </c>
       <c r="M13">
-        <v>1.000086877963037</v>
+        <v>1.000140381093967</v>
       </c>
       <c r="N13">
-        <v>1.000086877963037</v>
+        <v>1.000140381093967</v>
       </c>
       <c r="O13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="P13">
-        <v>0.9999511326308728</v>
+        <v>0.9999210391956008</v>
       </c>
       <c r="Q13">
-        <v>1.000002288637258</v>
+        <v>1.000003698875893</v>
       </c>
       <c r="R13">
-        <v>0.9999963810749274</v>
+        <v>0.9999941531617229</v>
       </c>
       <c r="S13">
-        <v>0.9999580874755805</v>
+        <v>0.9999322763125682</v>
       </c>
       <c r="T13">
-        <v>0.9999963810749272</v>
+        <v>0.9999941531617229</v>
       </c>
       <c r="U13">
-        <v>0.9999902850974444</v>
+        <v>0.9999843025079179</v>
       </c>
       <c r="V13">
-        <v>1.000009603670563</v>
+        <v>1.000015518225128</v>
       </c>
       <c r="W13">
-        <v>0.9999914130075521</v>
+        <v>0.9999861244860063</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.969532040033978</v>
+        <v>1.000516034995257</v>
       </c>
       <c r="D14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="E14">
-        <v>1.045701945667218</v>
+        <v>0.9992259613531094</v>
       </c>
       <c r="F14">
-        <v>1.045701945667218</v>
+        <v>0.9992259613531094</v>
       </c>
       <c r="G14">
-        <v>1.00914037468098</v>
+        <v>0.9998451917564496</v>
       </c>
       <c r="H14">
-        <v>1.029715670191089</v>
+        <v>0.9994967109139707</v>
       </c>
       <c r="I14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="J14">
-        <v>1.009820251921844</v>
+        <v>0.9998336767193874</v>
       </c>
       <c r="K14">
-        <v>0.983035846683217</v>
+        <v>1.000287320066187</v>
       </c>
       <c r="L14">
-        <v>0.969532040033978</v>
+        <v>1.000516034995257</v>
       </c>
       <c r="M14">
-        <v>0.969532040033978</v>
+        <v>1.000516034995257</v>
       </c>
       <c r="N14">
-        <v>0.969532040033978</v>
+        <v>1.000516034995257</v>
       </c>
       <c r="O14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="P14">
-        <v>1.017138230763946</v>
+        <v>0.9997097379528572</v>
       </c>
       <c r="Q14">
-        <v>0.9991973838912598</v>
+        <v>1.000013595635996</v>
       </c>
       <c r="R14">
-        <v>1.001269500520624</v>
+        <v>0.9999785036336574</v>
       </c>
       <c r="S14">
-        <v>1.014698904483246</v>
+        <v>0.9997510508750339</v>
       </c>
       <c r="T14">
-        <v>1.001269500520624</v>
+        <v>0.9999785036336574</v>
       </c>
       <c r="U14">
-        <v>1.003407188370929</v>
+        <v>0.9999422969050898</v>
       </c>
       <c r="V14">
-        <v>0.9966321587035386</v>
+        <v>1.000057044523123</v>
       </c>
       <c r="W14">
-        <v>1.00301189511246</v>
+        <v>0.9999489906136965</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9918791945001935</v>
+        <v>1.00018621958964</v>
       </c>
       <c r="D15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="E15">
-        <v>1.012181208237609</v>
+        <v>0.999720670292581</v>
       </c>
       <c r="F15">
-        <v>1.012181208237609</v>
+        <v>0.999720670292581</v>
       </c>
       <c r="G15">
-        <v>1.002436247123406</v>
+        <v>0.9999441338590285</v>
       </c>
       <c r="H15">
-        <v>1.007920291228564</v>
+        <v>0.999818378300051</v>
       </c>
       <c r="I15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="J15">
-        <v>1.002617452885799</v>
+        <v>0.9999399792333428</v>
       </c>
       <c r="K15">
-        <v>0.9954784415153435</v>
+        <v>1.000103686643215</v>
       </c>
       <c r="L15">
-        <v>0.9918791945001935</v>
+        <v>1.00018621958964</v>
       </c>
       <c r="M15">
-        <v>0.9918791945001935</v>
+        <v>1.00018621958964</v>
       </c>
       <c r="N15">
-        <v>0.9918791945001935</v>
+        <v>1.00018621958964</v>
       </c>
       <c r="O15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="P15">
-        <v>1.004567951325689</v>
+        <v>0.9998952533739061</v>
       </c>
       <c r="Q15">
-        <v>0.9997860736497832</v>
+        <v>1.000004907844287</v>
       </c>
       <c r="R15">
-        <v>1.00033836571719</v>
+        <v>0.9999922421124839</v>
       </c>
       <c r="S15">
-        <v>1.003917785179059</v>
+        <v>0.9999101619937183</v>
       </c>
       <c r="T15">
-        <v>1.00033836571719</v>
+        <v>0.9999922421124841</v>
       </c>
       <c r="U15">
-        <v>1.000908137509342</v>
+        <v>0.9999791763926987</v>
       </c>
       <c r="V15">
-        <v>0.9991023489075127</v>
+        <v>1.000020585032087</v>
       </c>
       <c r="W15">
-        <v>1.000802778039807</v>
+        <v>0.9999815926035401</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003627743275687</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="D16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="E16">
-        <v>0.9945583925282415</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="F16">
-        <v>0.9945583925282415</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="G16">
-        <v>0.9989116771317187</v>
+        <v>0.9998921514297636</v>
       </c>
       <c r="H16">
-        <v>0.9964618331430773</v>
+        <v>0.9996493815667122</v>
       </c>
       <c r="I16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="J16">
-        <v>0.9988307242068957</v>
+        <v>0.9998841291328039</v>
       </c>
       <c r="K16">
-        <v>1.002019884548611</v>
+        <v>1.000200166106374</v>
       </c>
       <c r="L16">
-        <v>1.003627743275687</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="M16">
-        <v>1.003627743275687</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="N16">
-        <v>1.003627743275687</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="O16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="P16">
-        <v>0.9979594027239296</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="Q16">
-        <v>1.000095568563257</v>
+        <v>1.000009473069958</v>
       </c>
       <c r="R16">
-        <v>0.9998488495745154</v>
+        <v>0.9999850230037707</v>
       </c>
       <c r="S16">
-        <v>0.9982498432182516</v>
+        <v>0.9998265674377015</v>
       </c>
       <c r="T16">
-        <v>0.9998488495745154</v>
+        <v>0.9999850230037707</v>
       </c>
       <c r="U16">
-        <v>0.9995943182326105</v>
+        <v>0.999959799536029</v>
       </c>
       <c r="V16">
-        <v>1.000401003241226</v>
+        <v>1.000039738795026</v>
       </c>
       <c r="W16">
-        <v>0.9996413850841832</v>
+        <v>0.9999644642817596</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002953616157175</v>
+        <v>1.000688932550158</v>
       </c>
       <c r="D17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="E17">
-        <v>0.9955695809655793</v>
+        <v>0.9989666085964711</v>
       </c>
       <c r="F17">
-        <v>0.9955695809655793</v>
+        <v>0.9989666085964711</v>
       </c>
       <c r="G17">
-        <v>0.9991139150597871</v>
+        <v>0.9997933230491625</v>
       </c>
       <c r="H17">
-        <v>0.9971193145318249</v>
+        <v>0.9993280785013972</v>
       </c>
       <c r="I17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="J17">
-        <v>0.999048006102939</v>
+        <v>0.9997779454449937</v>
       </c>
       <c r="K17">
-        <v>1.001644538502674</v>
+        <v>1.000383589605399</v>
       </c>
       <c r="L17">
-        <v>1.002953616157175</v>
+        <v>1.000688932550158</v>
       </c>
       <c r="M17">
-        <v>1.002953616157175</v>
+        <v>1.000688932550158</v>
       </c>
       <c r="N17">
-        <v>1.002953616157175</v>
+        <v>1.000688932550158</v>
       </c>
       <c r="O17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="P17">
-        <v>0.9983385970729649</v>
+        <v>0.9996124831034776</v>
       </c>
       <c r="Q17">
-        <v>1.000077809641645</v>
+        <v>1.000018151527739</v>
       </c>
       <c r="R17">
-        <v>0.9998769367677015</v>
+        <v>0.9999712995857042</v>
       </c>
       <c r="S17">
-        <v>0.9985750667496229</v>
+        <v>0.9996676372173163</v>
       </c>
       <c r="T17">
-        <v>0.9998769367677015</v>
+        <v>0.9999712995857042</v>
       </c>
       <c r="U17">
-        <v>0.9996697041015108</v>
+        <v>0.9999229610505266</v>
       </c>
       <c r="V17">
-        <v>1.000326486512644</v>
+        <v>1.000076155350453</v>
       </c>
       <c r="W17">
-        <v>0.9997080247100849</v>
+        <v>0.9999318991210686</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001569431637892</v>
+        <v>1.001010440393895</v>
       </c>
       <c r="D18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="E18">
-        <v>0.9976458525525063</v>
+        <v>0.9984843496263277</v>
       </c>
       <c r="F18">
-        <v>0.9976458525525063</v>
+        <v>0.9984843496263277</v>
       </c>
       <c r="G18">
-        <v>0.999529170829781</v>
+        <v>0.9996968682020483</v>
       </c>
       <c r="H18">
-        <v>0.9984693208881189</v>
+        <v>0.9990145096937239</v>
       </c>
       <c r="I18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="J18">
-        <v>0.9994941483100979</v>
+        <v>0.9996743183837665</v>
       </c>
       <c r="K18">
-        <v>1.000873844102239</v>
+        <v>1.000562606135889</v>
       </c>
       <c r="L18">
-        <v>1.001569431637892</v>
+        <v>1.001010440393895</v>
       </c>
       <c r="M18">
-        <v>1.001569431637892</v>
+        <v>1.001010440393895</v>
       </c>
       <c r="N18">
-        <v>1.001569431637892</v>
+        <v>1.001010440393895</v>
       </c>
       <c r="O18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="P18">
-        <v>0.9991171971091967</v>
+        <v>0.9994316362922593</v>
       </c>
       <c r="Q18">
-        <v>1.000041344987992</v>
+        <v>1.000026620670979</v>
       </c>
       <c r="R18">
-        <v>0.9999346086187618</v>
+        <v>0.9999579043261378</v>
       </c>
       <c r="S18">
-        <v>0.999242847509497</v>
+        <v>0.9995125303227618</v>
       </c>
       <c r="T18">
-        <v>0.9999346086187618</v>
+        <v>0.9999579043261378</v>
       </c>
       <c r="U18">
-        <v>0.9998244935415959</v>
+        <v>0.9998870078405451</v>
       </c>
       <c r="V18">
-        <v>1.000173481160855</v>
+        <v>1.000111694351215</v>
       </c>
       <c r="W18">
-        <v>0.9998448564565512</v>
+        <v>0.9999001172940041</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001804114333378</v>
+        <v>1.000005525638838</v>
       </c>
       <c r="D19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="E19">
-        <v>0.997293832946925</v>
+        <v>0.9999917104381885</v>
       </c>
       <c r="F19">
-        <v>0.997293832946925</v>
+        <v>0.9999917104381885</v>
       </c>
       <c r="G19">
-        <v>0.9994587657335776</v>
+        <v>0.9999983420385545</v>
       </c>
       <c r="H19">
-        <v>0.9982404334204221</v>
+        <v>0.9999946101919112</v>
       </c>
       <c r="I19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="J19">
-        <v>0.9994185073283159</v>
+        <v>0.9999982197340848</v>
       </c>
       <c r="K19">
-        <v>1.001004510039065</v>
+        <v>1.000003078535894</v>
       </c>
       <c r="L19">
-        <v>1.001804114333378</v>
+        <v>1.000005525638838</v>
       </c>
       <c r="M19">
-        <v>1.001804114333378</v>
+        <v>1.000005525638838</v>
       </c>
       <c r="N19">
-        <v>1.001804114333378</v>
+        <v>1.000005525638838</v>
       </c>
       <c r="O19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="P19">
-        <v>0.9989851914883281</v>
+        <v>0.9999968930991892</v>
       </c>
       <c r="Q19">
-        <v>1.000047528679024</v>
+        <v>1.000000147747137</v>
       </c>
       <c r="R19">
-        <v>0.9999248324366778</v>
+        <v>0.9999997706124054</v>
       </c>
       <c r="S19">
-        <v>0.9991296301016573</v>
+        <v>0.999997335310821</v>
       </c>
       <c r="T19">
-        <v>0.9999248324366778</v>
+        <v>0.9999997706124056</v>
       </c>
       <c r="U19">
-        <v>0.9997982511595873</v>
+        <v>0.9999993828928254</v>
       </c>
       <c r="V19">
-        <v>1.000199423794345</v>
+        <v>1.000000611442028</v>
       </c>
       <c r="W19">
-        <v>0.9998216579826432</v>
+        <v>0.9999994547622314</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000767756064</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="D20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="E20">
-        <v>0.9999988471686717</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="F20">
-        <v>0.9999988471686717</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="G20">
-        <v>0.999999769380299</v>
+        <v>0.9999993762883826</v>
       </c>
       <c r="H20">
-        <v>0.999999250589936</v>
+        <v>0.99999797316089</v>
       </c>
       <c r="I20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="J20">
-        <v>0.9999997532448964</v>
+        <v>0.9999993310209633</v>
       </c>
       <c r="K20">
-        <v>1.000000429511621</v>
+        <v>1.000001158867367</v>
       </c>
       <c r="L20">
-        <v>1.000000767756064</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="M20">
-        <v>1.000000767756064</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="N20">
-        <v>1.000000767756064</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="O20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="P20">
-        <v>0.9999995694335377</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="Q20">
-        <v>1.00000002247165</v>
+        <v>1.000000056931755</v>
       </c>
       <c r="R20">
-        <v>0.9999999688743797</v>
+        <v>0.9999999142609065</v>
       </c>
       <c r="S20">
-        <v>0.9999996307039907</v>
+        <v>0.9999989986625996</v>
       </c>
       <c r="T20">
-        <v>0.9999999688743797</v>
+        <v>0.9999999142609065</v>
       </c>
       <c r="U20">
-        <v>0.9999999149670089</v>
+        <v>0.9999997684509208</v>
       </c>
       <c r="V20">
-        <v>1.00000008552482</v>
+        <v>1.000000230323913</v>
       </c>
       <c r="W20">
-        <v>0.999999925131037</v>
+        <v>0.9999997956203587</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000016284515201</v>
+        <v>0.9999810325528772</v>
       </c>
       <c r="D21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="E21">
-        <v>0.9999755728388378</v>
+        <v>1.000028450715356</v>
       </c>
       <c r="F21">
-        <v>0.9999755728388378</v>
+        <v>1.000028450715356</v>
       </c>
       <c r="G21">
-        <v>0.9999951147354407</v>
+        <v>1.000005690046642</v>
       </c>
       <c r="H21">
-        <v>0.9999841174356137</v>
+        <v>1.000018498686598</v>
       </c>
       <c r="I21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="J21">
-        <v>0.9999947517045974</v>
+        <v>1.000006114145661</v>
       </c>
       <c r="K21">
-        <v>1.000009069157193</v>
+        <v>0.9999894407552593</v>
       </c>
       <c r="L21">
-        <v>1.000016284515201</v>
+        <v>0.9999810325528772</v>
       </c>
       <c r="M21">
-        <v>1.000016284515201</v>
+        <v>0.9999810325528772</v>
       </c>
       <c r="N21">
-        <v>1.000016284515201</v>
+        <v>0.9999810325528772</v>
       </c>
       <c r="O21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="P21">
-        <v>0.9999908418509618</v>
+        <v>1.000010670703172</v>
       </c>
       <c r="Q21">
-        <v>1.000000431283842</v>
+        <v>0.9999995024183248</v>
       </c>
       <c r="R21">
-        <v>0.9999993227390416</v>
+        <v>1.000000791319741</v>
       </c>
       <c r="S21">
-        <v>0.9999921451355069</v>
+        <v>1.000009151850668</v>
       </c>
       <c r="T21">
-        <v>0.9999993227390416</v>
+        <v>1.000000791319741</v>
       </c>
       <c r="U21">
-        <v>0.9999981799804305</v>
+        <v>1.000002122026221</v>
       </c>
       <c r="V21">
-        <v>1.000001800887385</v>
+        <v>0.9999979041315518</v>
       </c>
       <c r="W21">
-        <v>0.9999983915141319</v>
+        <v>1.000001876035546</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000057334495987</v>
+        <v>0.9999789305173188</v>
       </c>
       <c r="D22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="E22">
-        <v>0.9999139972541676</v>
+        <v>1.000031604123303</v>
       </c>
       <c r="F22">
-        <v>0.9999139972541676</v>
+        <v>1.000031604123303</v>
       </c>
       <c r="G22">
-        <v>0.9999827978303153</v>
+        <v>1.000006320064172</v>
       </c>
       <c r="H22">
-        <v>0.9999440800137583</v>
+        <v>1.000020548938128</v>
       </c>
       <c r="I22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="J22">
-        <v>0.9999815186970012</v>
+        <v>1.000006792549905</v>
       </c>
       <c r="K22">
-        <v>1.000031927205301</v>
+        <v>0.9999882704260605</v>
       </c>
       <c r="L22">
-        <v>1.000057334495987</v>
+        <v>0.9999789305173188</v>
       </c>
       <c r="M22">
-        <v>1.000057334495987</v>
+        <v>0.9999789305173188</v>
       </c>
       <c r="N22">
-        <v>1.000057334495987</v>
+        <v>0.9999789305173188</v>
       </c>
       <c r="O22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="P22">
-        <v>0.99996775154595</v>
+        <v>1.00001185370061</v>
       </c>
       <c r="Q22">
-        <v>1.000001512267367</v>
+        <v>0.9999994479139104</v>
       </c>
       <c r="R22">
-        <v>0.9999976125292956</v>
+        <v>1.000000879306179</v>
       </c>
       <c r="S22">
-        <v>0.9999723405963005</v>
+        <v>1.000010166650375</v>
       </c>
       <c r="T22">
-        <v>0.9999976125292956</v>
+        <v>1.000000879306179</v>
       </c>
       <c r="U22">
-        <v>0.999993589071222</v>
+        <v>1.000002357617111</v>
       </c>
       <c r="V22">
-        <v>1.000006338156175</v>
+        <v>0.9999976721971523</v>
       </c>
       <c r="W22">
-        <v>0.9999943333964995</v>
+        <v>1.00000208414684</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999151902425126</v>
+      </c>
+      <c r="D23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="E23">
+        <v>1.000127214607932</v>
+      </c>
+      <c r="F23">
+        <v>1.000127214607932</v>
+      </c>
+      <c r="G23">
+        <v>1.000025442955418</v>
+      </c>
+      <c r="H23">
+        <v>1.000082716098616</v>
+      </c>
+      <c r="I23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="J23">
+        <v>1.000027334263847</v>
+      </c>
+      <c r="K23">
+        <v>0.9999527803774151</v>
+      </c>
+      <c r="L23">
+        <v>0.9999151902425126</v>
+      </c>
+      <c r="M23">
+        <v>0.9999151902425126</v>
+      </c>
+      <c r="N23">
+        <v>0.9999151902425126</v>
+      </c>
+      <c r="O23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="P23">
+        <v>1.000047706476337</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999977663042946</v>
+      </c>
+      <c r="R23">
+        <v>1.000003534398396</v>
+      </c>
+      <c r="S23">
+        <v>1.00004091573884</v>
+      </c>
+      <c r="T23">
+        <v>1.000003534398396</v>
+      </c>
+      <c r="U23">
+        <v>1.000009484364758</v>
+      </c>
+      <c r="V23">
+        <v>0.9999906255403094</v>
+      </c>
+      <c r="W23">
+        <v>1.000008384404403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="D24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="E24">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="F24">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="G24">
+        <v>0.9999039259782335</v>
+      </c>
+      <c r="H24">
+        <v>0.9996876591446778</v>
+      </c>
+      <c r="I24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="J24">
+        <v>0.9998967808468452</v>
+      </c>
+      <c r="K24">
+        <v>1.0001783130487</v>
+      </c>
+      <c r="L24">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="M24">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="N24">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="O24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="P24">
+        <v>0.9998198649741917</v>
+      </c>
+      <c r="Q24">
+        <v>1.000008437531518</v>
+      </c>
+      <c r="R24">
+        <v>0.9999866569897993</v>
+      </c>
+      <c r="S24">
+        <v>0.9998455035984096</v>
+      </c>
+      <c r="T24">
+        <v>0.9999866569897993</v>
+      </c>
+      <c r="U24">
+        <v>0.9999641879540607</v>
+      </c>
+      <c r="V24">
+        <v>1.000035398567451</v>
+      </c>
+      <c r="W24">
+        <v>0.9999683430255056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="D25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="E25">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="F25">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="G25">
+        <v>0.9999739352794422</v>
+      </c>
+      <c r="H25">
+        <v>0.9999152752583488</v>
+      </c>
+      <c r="I25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="J25">
+        <v>0.9999719971649959</v>
+      </c>
+      <c r="K25">
+        <v>1.000048373023327</v>
+      </c>
+      <c r="L25">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="M25">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="N25">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="O25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="P25">
+        <v>0.9999511326308728</v>
+      </c>
+      <c r="Q25">
+        <v>1.000002288637258</v>
+      </c>
+      <c r="R25">
+        <v>0.9999963810749274</v>
+      </c>
+      <c r="S25">
+        <v>0.9999580874755805</v>
+      </c>
+      <c r="T25">
+        <v>0.9999963810749272</v>
+      </c>
+      <c r="U25">
+        <v>0.9999902850974444</v>
+      </c>
+      <c r="V25">
+        <v>1.000009603670563</v>
+      </c>
+      <c r="W25">
+        <v>0.9999914130075521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="D26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="E26">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="F26">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="G26">
+        <v>1.00914037468098</v>
+      </c>
+      <c r="H26">
+        <v>1.029715670191089</v>
+      </c>
+      <c r="I26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="J26">
+        <v>1.009820251921844</v>
+      </c>
+      <c r="K26">
+        <v>0.983035846683217</v>
+      </c>
+      <c r="L26">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="M26">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="N26">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="O26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="P26">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="Q26">
+        <v>0.9991973838912598</v>
+      </c>
+      <c r="R26">
+        <v>1.001269500520624</v>
+      </c>
+      <c r="S26">
+        <v>1.014698904483246</v>
+      </c>
+      <c r="T26">
+        <v>1.001269500520624</v>
+      </c>
+      <c r="U26">
+        <v>1.003407188370929</v>
+      </c>
+      <c r="V26">
+        <v>0.9966321587035386</v>
+      </c>
+      <c r="W26">
+        <v>1.00301189511246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="D27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="E27">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="F27">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="G27">
+        <v>1.002436247123406</v>
+      </c>
+      <c r="H27">
+        <v>1.007920291228564</v>
+      </c>
+      <c r="I27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="J27">
+        <v>1.002617452885799</v>
+      </c>
+      <c r="K27">
+        <v>0.9954784415153435</v>
+      </c>
+      <c r="L27">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="M27">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="N27">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="O27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="P27">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="Q27">
+        <v>0.9997860736497832</v>
+      </c>
+      <c r="R27">
+        <v>1.00033836571719</v>
+      </c>
+      <c r="S27">
+        <v>1.003917785179059</v>
+      </c>
+      <c r="T27">
+        <v>1.00033836571719</v>
+      </c>
+      <c r="U27">
+        <v>1.000908137509342</v>
+      </c>
+      <c r="V27">
+        <v>0.9991023489075127</v>
+      </c>
+      <c r="W27">
+        <v>1.000802778039807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003627743275687</v>
+      </c>
+      <c r="D28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="E28">
+        <v>0.9945583925282415</v>
+      </c>
+      <c r="F28">
+        <v>0.9945583925282415</v>
+      </c>
+      <c r="G28">
+        <v>0.9989116771317187</v>
+      </c>
+      <c r="H28">
+        <v>0.9964618331430773</v>
+      </c>
+      <c r="I28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="J28">
+        <v>0.9988307242068957</v>
+      </c>
+      <c r="K28">
+        <v>1.002019884548611</v>
+      </c>
+      <c r="L28">
+        <v>1.003627743275687</v>
+      </c>
+      <c r="M28">
+        <v>1.003627743275687</v>
+      </c>
+      <c r="N28">
+        <v>1.003627743275687</v>
+      </c>
+      <c r="O28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="P28">
+        <v>0.9979594027239296</v>
+      </c>
+      <c r="Q28">
+        <v>1.000095568563257</v>
+      </c>
+      <c r="R28">
+        <v>0.9998488495745154</v>
+      </c>
+      <c r="S28">
+        <v>0.9982498432182516</v>
+      </c>
+      <c r="T28">
+        <v>0.9998488495745154</v>
+      </c>
+      <c r="U28">
+        <v>0.9995943182326105</v>
+      </c>
+      <c r="V28">
+        <v>1.000401003241226</v>
+      </c>
+      <c r="W28">
+        <v>0.9996413850841832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.002953616157175</v>
+      </c>
+      <c r="D29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="E29">
+        <v>0.9955695809655793</v>
+      </c>
+      <c r="F29">
+        <v>0.9955695809655793</v>
+      </c>
+      <c r="G29">
+        <v>0.9991139150597871</v>
+      </c>
+      <c r="H29">
+        <v>0.9971193145318249</v>
+      </c>
+      <c r="I29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="J29">
+        <v>0.999048006102939</v>
+      </c>
+      <c r="K29">
+        <v>1.001644538502674</v>
+      </c>
+      <c r="L29">
+        <v>1.002953616157175</v>
+      </c>
+      <c r="M29">
+        <v>1.002953616157175</v>
+      </c>
+      <c r="N29">
+        <v>1.002953616157175</v>
+      </c>
+      <c r="O29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="P29">
+        <v>0.9983385970729649</v>
+      </c>
+      <c r="Q29">
+        <v>1.000077809641645</v>
+      </c>
+      <c r="R29">
+        <v>0.9998769367677015</v>
+      </c>
+      <c r="S29">
+        <v>0.9985750667496229</v>
+      </c>
+      <c r="T29">
+        <v>0.9998769367677015</v>
+      </c>
+      <c r="U29">
+        <v>0.9996697041015108</v>
+      </c>
+      <c r="V29">
+        <v>1.000326486512644</v>
+      </c>
+      <c r="W29">
+        <v>0.9997080247100849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001569431637892</v>
+      </c>
+      <c r="D30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="E30">
+        <v>0.9976458525525063</v>
+      </c>
+      <c r="F30">
+        <v>0.9976458525525063</v>
+      </c>
+      <c r="G30">
+        <v>0.999529170829781</v>
+      </c>
+      <c r="H30">
+        <v>0.9984693208881189</v>
+      </c>
+      <c r="I30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="J30">
+        <v>0.9994941483100979</v>
+      </c>
+      <c r="K30">
+        <v>1.000873844102239</v>
+      </c>
+      <c r="L30">
+        <v>1.001569431637892</v>
+      </c>
+      <c r="M30">
+        <v>1.001569431637892</v>
+      </c>
+      <c r="N30">
+        <v>1.001569431637892</v>
+      </c>
+      <c r="O30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="P30">
+        <v>0.9991171971091967</v>
+      </c>
+      <c r="Q30">
+        <v>1.000041344987992</v>
+      </c>
+      <c r="R30">
+        <v>0.9999346086187618</v>
+      </c>
+      <c r="S30">
+        <v>0.999242847509497</v>
+      </c>
+      <c r="T30">
+        <v>0.9999346086187618</v>
+      </c>
+      <c r="U30">
+        <v>0.9998244935415959</v>
+      </c>
+      <c r="V30">
+        <v>1.000173481160855</v>
+      </c>
+      <c r="W30">
+        <v>0.9998448564565512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="D31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="E31">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="F31">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="G31">
+        <v>0.9994587657335776</v>
+      </c>
+      <c r="H31">
+        <v>0.9982404334204221</v>
+      </c>
+      <c r="I31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="J31">
+        <v>0.9994185073283159</v>
+      </c>
+      <c r="K31">
+        <v>1.001004510039065</v>
+      </c>
+      <c r="L31">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="M31">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="N31">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="O31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="P31">
+        <v>0.9989851914883281</v>
+      </c>
+      <c r="Q31">
+        <v>1.000047528679024</v>
+      </c>
+      <c r="R31">
+        <v>0.9999248324366778</v>
+      </c>
+      <c r="S31">
+        <v>0.9991296301016573</v>
+      </c>
+      <c r="T31">
+        <v>0.9999248324366778</v>
+      </c>
+      <c r="U31">
+        <v>0.9997982511595873</v>
+      </c>
+      <c r="V31">
+        <v>1.000199423794345</v>
+      </c>
+      <c r="W31">
+        <v>0.9998216579826432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.003611022465753</v>
+      </c>
+      <c r="D32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="E32">
+        <v>0.9945834764383562</v>
+      </c>
+      <c r="F32">
+        <v>0.9945834764383562</v>
+      </c>
+      <c r="G32">
+        <v>0.9989166939726029</v>
+      </c>
+      <c r="H32">
+        <v>0.9964781419178085</v>
+      </c>
+      <c r="I32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="J32">
+        <v>0.9988361117808215</v>
+      </c>
+      <c r="K32">
+        <v>1.002010575616438</v>
+      </c>
+      <c r="L32">
+        <v>1.003611022465753</v>
+      </c>
+      <c r="M32">
+        <v>1.003611022465753</v>
+      </c>
+      <c r="N32">
+        <v>1.003611022465753</v>
+      </c>
+      <c r="O32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="P32">
+        <v>0.997968810479452</v>
+      </c>
+      <c r="Q32">
+        <v>1.000095128150685</v>
+      </c>
+      <c r="R32">
+        <v>0.9998495478082191</v>
+      </c>
+      <c r="S32">
+        <v>0.9982579109132418</v>
+      </c>
+      <c r="T32">
+        <v>0.9998495478082191</v>
+      </c>
+      <c r="U32">
+        <v>0.9995961888013698</v>
+      </c>
+      <c r="V32">
+        <v>1.000399155534246</v>
+      </c>
+      <c r="W32">
+        <v>0.9996430389041095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.984316445263158</v>
+      </c>
+      <c r="D33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="E33">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="F33">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="G33">
+        <v>1.004705065263158</v>
+      </c>
+      <c r="H33">
+        <v>1.015296312631579</v>
+      </c>
+      <c r="I33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="J33">
+        <v>1.005055029473684</v>
+      </c>
+      <c r="K33">
+        <v>0.9912676147368424</v>
+      </c>
+      <c r="L33">
+        <v>0.984316445263158</v>
+      </c>
+      <c r="M33">
+        <v>0.984316445263158</v>
+      </c>
+      <c r="N33">
+        <v>0.984316445263158</v>
+      </c>
+      <c r="O33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="P33">
+        <v>1.008822003947368</v>
+      </c>
+      <c r="Q33">
+        <v>0.9995868476315789</v>
+      </c>
+      <c r="R33">
+        <v>1.000653484385965</v>
+      </c>
+      <c r="S33">
+        <v>1.007566345789473</v>
+      </c>
+      <c r="T33">
+        <v>1.000653484385965</v>
+      </c>
+      <c r="U33">
+        <v>1.001753870657895</v>
+      </c>
+      <c r="V33">
+        <v>0.9982663855789473</v>
+      </c>
+      <c r="W33">
+        <v>1.001550392631579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="D34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="E34">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="F34">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="G34">
+        <v>0.9990499384210526</v>
+      </c>
+      <c r="H34">
+        <v>0.9969113226315791</v>
+      </c>
+      <c r="I34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="J34">
+        <v>0.9989792663157895</v>
+      </c>
+      <c r="K34">
+        <v>1.001763281052632</v>
+      </c>
+      <c r="L34">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="M34">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="N34">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="O34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="P34">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="Q34">
+        <v>1.000083427631579</v>
+      </c>
+      <c r="R34">
+        <v>0.999868054210526</v>
+      </c>
+      <c r="S34">
+        <v>0.9984721842105261</v>
+      </c>
+      <c r="T34">
+        <v>0.999868054210526</v>
+      </c>
+      <c r="U34">
+        <v>0.9996458572368419</v>
+      </c>
+      <c r="V34">
+        <v>1.000350061052631</v>
+      </c>
+      <c r="W34">
+        <v>0.9996869449999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.006536151903368</v>
+      </c>
+      <c r="D35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="E35">
+        <v>0.9901958024679519</v>
+      </c>
+      <c r="F35">
+        <v>0.9901958024679519</v>
+      </c>
+      <c r="G35">
+        <v>0.9980391592460238</v>
+      </c>
+      <c r="H35">
+        <v>0.9936252546539249</v>
+      </c>
+      <c r="I35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="J35">
+        <v>0.9978933136236334</v>
+      </c>
+      <c r="K35">
+        <v>1.003639249598744</v>
+      </c>
+      <c r="L35">
+        <v>1.006536151903368</v>
+      </c>
+      <c r="M35">
+        <v>1.006536151903368</v>
+      </c>
+      <c r="N35">
+        <v>1.006536151903368</v>
+      </c>
+      <c r="O35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="P35">
+        <v>0.9963234272959325</v>
+      </c>
+      <c r="Q35">
+        <v>1.000172182873773</v>
+      </c>
+      <c r="R35">
+        <v>0.9997276688317442</v>
+      </c>
+      <c r="S35">
+        <v>0.9968467227384995</v>
+      </c>
+      <c r="T35">
+        <v>0.9997276688317444</v>
+      </c>
+      <c r="U35">
+        <v>0.9992690800297166</v>
+      </c>
+      <c r="V35">
+        <v>1.000722494404447</v>
+      </c>
+      <c r="W35">
+        <v>0.9993538794676839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="D36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="E36">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="F36">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="G36">
+        <v>0.999999769380299</v>
+      </c>
+      <c r="H36">
+        <v>0.999999250589936</v>
+      </c>
+      <c r="I36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="J36">
+        <v>0.9999997532448964</v>
+      </c>
+      <c r="K36">
+        <v>1.000000429511621</v>
+      </c>
+      <c r="L36">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="M36">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="N36">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="O36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="P36">
+        <v>0.9999995694335377</v>
+      </c>
+      <c r="Q36">
+        <v>1.00000002247165</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999688743797</v>
+      </c>
+      <c r="S36">
+        <v>0.9999996307039907</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999688743797</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999149670089</v>
+      </c>
+      <c r="V36">
+        <v>1.00000008552482</v>
+      </c>
+      <c r="W36">
+        <v>0.999999925131037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="D37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="E37">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="F37">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="G37">
+        <v>0.9999951147354407</v>
+      </c>
+      <c r="H37">
+        <v>0.9999841174356137</v>
+      </c>
+      <c r="I37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="J37">
+        <v>0.9999947517045974</v>
+      </c>
+      <c r="K37">
+        <v>1.000009069157193</v>
+      </c>
+      <c r="L37">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="M37">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="N37">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="O37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="P37">
+        <v>0.9999908418509618</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000431283842</v>
+      </c>
+      <c r="R37">
+        <v>0.9999993227390416</v>
+      </c>
+      <c r="S37">
+        <v>0.9999921451355069</v>
+      </c>
+      <c r="T37">
+        <v>0.9999993227390416</v>
+      </c>
+      <c r="U37">
+        <v>0.9999981799804305</v>
+      </c>
+      <c r="V37">
+        <v>1.000001800887385</v>
+      </c>
+      <c r="W37">
+        <v>0.9999983915141319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="D38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="E38">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="F38">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="G38">
+        <v>0.9999827978303153</v>
+      </c>
+      <c r="H38">
+        <v>0.9999440800137583</v>
+      </c>
+      <c r="I38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="J38">
+        <v>0.9999815186970012</v>
+      </c>
+      <c r="K38">
+        <v>1.000031927205301</v>
+      </c>
+      <c r="L38">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="M38">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="N38">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="O38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="P38">
+        <v>0.99996775154595</v>
+      </c>
+      <c r="Q38">
+        <v>1.000001512267367</v>
+      </c>
+      <c r="R38">
+        <v>0.9999976125292956</v>
+      </c>
+      <c r="S38">
+        <v>0.9999723405963005</v>
+      </c>
+      <c r="T38">
+        <v>0.9999976125292956</v>
+      </c>
+      <c r="U38">
+        <v>0.999993589071222</v>
+      </c>
+      <c r="V38">
+        <v>1.000006338156175</v>
+      </c>
+      <c r="W38">
+        <v>0.9999943333964995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000134320971912</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000050377160312</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9997985203512424</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9997985203512424</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.999959704693303</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9998689964591353</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000050377160312</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999567074473761</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000074789357944</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000134320971912</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000134320971912</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000134320971912</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000050377160312</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999244487557772</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000003542303844</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999944061611555</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999352016529768</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999944061611554</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999849814827106</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000014849380551</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999867242001921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001057162099064</v>
+      </c>
+      <c r="D40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="E40">
+        <v>0.9984142526515971</v>
+      </c>
+      <c r="F40">
+        <v>0.9984142526515971</v>
+      </c>
+      <c r="G40">
+        <v>0.9996828502631481</v>
+      </c>
+      <c r="H40">
+        <v>0.9989689382146675</v>
+      </c>
+      <c r="I40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="J40">
+        <v>0.9996592623850588</v>
+      </c>
+      <c r="K40">
+        <v>1.000588620668503</v>
+      </c>
+      <c r="L40">
+        <v>1.001057162099064</v>
+      </c>
+      <c r="M40">
+        <v>1.001057162099064</v>
+      </c>
+      <c r="N40">
+        <v>1.001057162099064</v>
+      </c>
+      <c r="O40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="P40">
+        <v>0.9994053469499368</v>
+      </c>
+      <c r="Q40">
+        <v>1.000027851816668</v>
+      </c>
+      <c r="R40">
+        <v>0.9999559519996458</v>
+      </c>
+      <c r="S40">
+        <v>0.9994899854283107</v>
+      </c>
+      <c r="T40">
+        <v>0.9999559519996458</v>
+      </c>
+      <c r="U40">
+        <v>0.9998817795959991</v>
+      </c>
+      <c r="V40">
+        <v>1.000116856096612</v>
+      </c>
+      <c r="W40">
+        <v>0.999895496097324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.005158966999478</v>
+      </c>
+      <c r="D41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="E41">
+        <v>0.9922615463352987</v>
+      </c>
+      <c r="F41">
+        <v>0.9922615463352987</v>
+      </c>
+      <c r="G41">
+        <v>0.9984523104352219</v>
+      </c>
+      <c r="H41">
+        <v>0.994968413858644</v>
+      </c>
+      <c r="I41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="J41">
+        <v>0.9983371930140287</v>
+      </c>
+      <c r="K41">
+        <v>1.002872446458544</v>
+      </c>
+      <c r="L41">
+        <v>1.005158966999478</v>
+      </c>
+      <c r="M41">
+        <v>1.005158966999478</v>
+      </c>
+      <c r="N41">
+        <v>1.005158966999478</v>
+      </c>
+      <c r="O41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="P41">
+        <v>0.9970980817105615</v>
+      </c>
+      <c r="Q41">
+        <v>1.000135905049927</v>
+      </c>
+      <c r="R41">
+        <v>0.9997850434735337</v>
+      </c>
+      <c r="S41">
+        <v>0.9975111188117172</v>
+      </c>
+      <c r="T41">
+        <v>0.9997850434735337</v>
+      </c>
+      <c r="U41">
+        <v>0.9994230808586574</v>
+      </c>
+      <c r="V41">
+        <v>1.000570258086821</v>
+      </c>
+      <c r="W41">
+        <v>0.999490013909108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.00719597724757</v>
+      </c>
+      <c r="D42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="E42">
+        <v>0.9892060327232383</v>
+      </c>
+      <c r="F42">
+        <v>0.9892060327232383</v>
+      </c>
+      <c r="G42">
+        <v>0.9978412073172609</v>
+      </c>
+      <c r="H42">
+        <v>0.9929817010402371</v>
+      </c>
+      <c r="I42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="J42">
+        <v>0.9976806369293749</v>
+      </c>
+      <c r="K42">
+        <v>1.004006629851774</v>
+      </c>
+      <c r="L42">
+        <v>1.00719597724757</v>
+      </c>
+      <c r="M42">
+        <v>1.00719597724757</v>
+      </c>
+      <c r="N42">
+        <v>1.00719597724757</v>
+      </c>
+      <c r="O42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="P42">
+        <v>0.9959522651561734</v>
+      </c>
+      <c r="Q42">
+        <v>1.000189567259242</v>
+      </c>
+      <c r="R42">
+        <v>0.9997001691866391</v>
+      </c>
+      <c r="S42">
+        <v>0.996528389080574</v>
+      </c>
+      <c r="T42">
+        <v>0.9997001691866392</v>
+      </c>
+      <c r="U42">
+        <v>0.9991952861223231</v>
+      </c>
+      <c r="V42">
+        <v>1.000795424347373</v>
+      </c>
+      <c r="W42">
+        <v>0.9992886475359593</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00018621958964</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="D3">
-        <v>0.999720670292581</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="E3">
-        <v>1.000069836455231</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="F3">
-        <v>1.00018621958964</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="G3">
-        <v>0.9999399792333428</v>
+        <v>0.9999993762883826</v>
       </c>
       <c r="H3">
-        <v>1.000103686643215</v>
+        <v>0.99999797316089</v>
       </c>
       <c r="I3">
-        <v>1.00018621958964</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="J3">
-        <v>0.999720670292581</v>
+        <v>0.9999993310209633</v>
       </c>
       <c r="K3">
-        <v>0.9999441338590286</v>
+        <v>1.000001158867367</v>
       </c>
       <c r="L3">
-        <v>1.000069836455231</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="M3">
-        <v>0.999818378300051</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="N3">
-        <v>1.00018621958964</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="O3">
-        <v>1.000069836455231</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="P3">
-        <v>0.9998952533739061</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="Q3">
-        <v>1.000004907844287</v>
+        <v>1.000000056931755</v>
       </c>
       <c r="R3">
-        <v>0.9999922421124839</v>
+        <v>0.9999999142609065</v>
       </c>
       <c r="S3">
-        <v>0.9999101619937183</v>
+        <v>0.9999989986625996</v>
       </c>
       <c r="T3">
-        <v>0.9999922421124841</v>
+        <v>0.9999999142609065</v>
       </c>
       <c r="U3">
-        <v>0.9999791763926987</v>
+        <v>0.9999997684509208</v>
       </c>
       <c r="V3">
-        <v>1.000020585032087</v>
+        <v>1.000000230323913</v>
       </c>
       <c r="W3">
-        <v>0.9999815926035401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999997956203587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359495831011</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="D4">
-        <v>0.9994607561731895</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="E4">
-        <v>1.000134817007111</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="F4">
-        <v>1.000359495831011</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="G4">
-        <v>0.9998841291328039</v>
+        <v>0.9996828502631481</v>
       </c>
       <c r="H4">
-        <v>1.000200166106374</v>
+        <v>0.9989689382146675</v>
       </c>
       <c r="I4">
-        <v>1.000359495831011</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="J4">
-        <v>0.9994607561731895</v>
+        <v>0.9996592623850588</v>
       </c>
       <c r="K4">
-        <v>0.9998921514297636</v>
+        <v>1.000588620668503</v>
       </c>
       <c r="L4">
-        <v>1.000134817007111</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="M4">
-        <v>0.9996493815667122</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="N4">
-        <v>1.000359495831011</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="O4">
-        <v>1.000134817007111</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="P4">
-        <v>0.9997977865901504</v>
+        <v>0.9994053469499368</v>
       </c>
       <c r="Q4">
-        <v>1.000009473069958</v>
+        <v>1.000027851816668</v>
       </c>
       <c r="R4">
-        <v>0.9999850230037707</v>
+        <v>0.9999559519996458</v>
       </c>
       <c r="S4">
-        <v>0.9998265674377015</v>
+        <v>0.9994899854283107</v>
       </c>
       <c r="T4">
-        <v>0.9999850230037707</v>
+        <v>0.9999559519996458</v>
       </c>
       <c r="U4">
-        <v>0.999959799536029</v>
+        <v>0.9998817795959991</v>
       </c>
       <c r="V4">
-        <v>1.000039738795026</v>
+        <v>1.000116856096612</v>
       </c>
       <c r="W4">
-        <v>0.9999644642817596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.999895496097324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688932550158</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="D5">
-        <v>0.9989666085964711</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="E5">
-        <v>1.000258357610484</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="F5">
-        <v>1.000688932550158</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="G5">
-        <v>0.9997779454449937</v>
+        <v>0.9994104319092214</v>
       </c>
       <c r="H5">
-        <v>1.000383589605399</v>
+        <v>0.9980832996253617</v>
       </c>
       <c r="I5">
-        <v>1.000688932550158</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="J5">
-        <v>0.9989666085964711</v>
+        <v>0.9993665807492768</v>
       </c>
       <c r="K5">
-        <v>0.9997933230491625</v>
+        <v>1.001094214423631</v>
       </c>
       <c r="L5">
-        <v>1.000258357610484</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="M5">
-        <v>0.9993280785013972</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="N5">
-        <v>1.000688932550158</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="O5">
-        <v>1.000258357610484</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="P5">
-        <v>0.9996124831034776</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="Q5">
-        <v>1.000018151527739</v>
+        <v>1.000051771732708</v>
       </c>
       <c r="R5">
-        <v>0.9999712995857042</v>
+        <v>0.9999181173631126</v>
       </c>
       <c r="S5">
-        <v>0.9996676372173163</v>
+        <v>0.9990519022214213</v>
       </c>
       <c r="T5">
-        <v>0.9999712995857042</v>
+        <v>0.9999181173631126</v>
       </c>
       <c r="U5">
-        <v>0.9999229610505266</v>
+        <v>0.9997802332096537</v>
       </c>
       <c r="V5">
-        <v>1.000076155350453</v>
+        <v>1.000217231802593</v>
       </c>
       <c r="W5">
-        <v>0.9999318991210686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.999805730189121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010440393895</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="D6">
-        <v>0.9984843496263277</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="E6">
-        <v>1.000378922958191</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="F6">
-        <v>1.001010440393895</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="G6">
-        <v>0.9996743183837665</v>
+        <v>0.9980391592460238</v>
       </c>
       <c r="H6">
-        <v>1.000562606135889</v>
+        <v>0.9936252546539249</v>
       </c>
       <c r="I6">
-        <v>1.001010440393895</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="J6">
-        <v>0.9984843496263277</v>
+        <v>0.9978933136236334</v>
       </c>
       <c r="K6">
-        <v>0.9996968682020483</v>
+        <v>1.003639249598744</v>
       </c>
       <c r="L6">
-        <v>1.000378922958191</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="M6">
-        <v>0.9990145096937239</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="N6">
-        <v>1.001010440393895</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="O6">
-        <v>1.000378922958191</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="P6">
-        <v>0.9994316362922593</v>
+        <v>0.9963234272959325</v>
       </c>
       <c r="Q6">
-        <v>1.000026620670979</v>
+        <v>1.000172182873773</v>
       </c>
       <c r="R6">
-        <v>0.9999579043261378</v>
+        <v>0.9997276688317442</v>
       </c>
       <c r="S6">
-        <v>0.9995125303227618</v>
+        <v>0.9968467227384995</v>
       </c>
       <c r="T6">
-        <v>0.9999579043261378</v>
+        <v>0.9997276688317444</v>
       </c>
       <c r="U6">
-        <v>0.9998870078405451</v>
+        <v>0.9992690800297166</v>
       </c>
       <c r="V6">
-        <v>1.000111694351215</v>
+        <v>1.000722494404447</v>
       </c>
       <c r="W6">
-        <v>0.9999001172940041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9993538794676839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000005525638838</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="D7">
-        <v>0.9999917104381881</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="E7">
-        <v>1.00000207576019</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="F7">
-        <v>1.000005525638838</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="G7">
-        <v>0.9999982197340845</v>
+        <v>0.9999350254851215</v>
       </c>
       <c r="H7">
-        <v>1.000003078535894</v>
+        <v>0.9997887664999148</v>
       </c>
       <c r="I7">
-        <v>1.000005525638838</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="J7">
-        <v>0.9999917104381881</v>
+        <v>0.9999301932228801</v>
       </c>
       <c r="K7">
-        <v>0.9999983420385545</v>
+        <v>1.000120591847271</v>
       </c>
       <c r="L7">
-        <v>1.00000207576019</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="M7">
-        <v>0.999994610191911</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="N7">
-        <v>1.000005525638838</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="O7">
-        <v>1.00000207576019</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="P7">
-        <v>0.999996893099189</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="Q7">
-        <v>1.000000147747137</v>
+        <v>1.000005707722003</v>
       </c>
       <c r="R7">
-        <v>0.9999997706124054</v>
+        <v>0.999990976897756</v>
       </c>
       <c r="S7">
-        <v>0.9999973353108209</v>
+        <v>0.9998955143989416</v>
       </c>
       <c r="T7">
-        <v>0.9999997706124054</v>
+        <v>0.9999909768977561</v>
       </c>
       <c r="U7">
-        <v>0.9999993828928252</v>
+        <v>0.9999757809790371</v>
       </c>
       <c r="V7">
-        <v>1.000000611442028</v>
+        <v>1.000023940927094</v>
       </c>
       <c r="W7">
-        <v>0.9999994547622313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999785912461978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000002077815884</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="D8">
-        <v>0.9999968821242884</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="E8">
-        <v>1.000000782842547</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="F8">
-        <v>1.000002077815884</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="G8">
-        <v>0.9999993310209633</v>
+        <v>0.9999951147354407</v>
       </c>
       <c r="H8">
-        <v>1.000001158867367</v>
+        <v>0.9999841174356137</v>
       </c>
       <c r="I8">
-        <v>1.000002077815884</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="J8">
-        <v>0.9999968821242884</v>
+        <v>0.9999947517045974</v>
       </c>
       <c r="K8">
-        <v>0.9999993762883826</v>
+        <v>1.000009069157193</v>
       </c>
       <c r="L8">
-        <v>1.000000782842547</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="M8">
-        <v>0.9999979731608898</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="N8">
-        <v>1.000002077815884</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="O8">
-        <v>1.000000782842547</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="P8">
-        <v>0.9999988324834176</v>
+        <v>0.9999908418509618</v>
       </c>
       <c r="Q8">
-        <v>1.000000056931755</v>
+        <v>1.000000431283842</v>
       </c>
       <c r="R8">
-        <v>0.9999999142609065</v>
+        <v>0.9999993227390416</v>
       </c>
       <c r="S8">
-        <v>0.9999989986625994</v>
+        <v>0.9999921451355069</v>
       </c>
       <c r="T8">
-        <v>0.9999999142609065</v>
+        <v>0.9999993227390416</v>
       </c>
       <c r="U8">
-        <v>0.9999997684509208</v>
+        <v>0.9999981799804305</v>
       </c>
       <c r="V8">
-        <v>1.000000230323913</v>
+        <v>1.000001800887385</v>
       </c>
       <c r="W8">
-        <v>0.9999997956203586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999983915141319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999810325528772</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="D9">
-        <v>1.000028450715356</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="E9">
-        <v>0.9999928906909888</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="F9">
-        <v>0.9999810325528772</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="G9">
-        <v>1.000006114145661</v>
+        <v>0.9998921514297636</v>
       </c>
       <c r="H9">
-        <v>0.9999894407552593</v>
+        <v>0.9996493815667122</v>
       </c>
       <c r="I9">
-        <v>0.9999810325528772</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="J9">
-        <v>1.000028450715356</v>
+        <v>0.9998841291328039</v>
       </c>
       <c r="K9">
-        <v>1.000005690046642</v>
+        <v>1.000200166106374</v>
       </c>
       <c r="L9">
-        <v>0.9999928906909888</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="M9">
-        <v>1.000018498686598</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="N9">
-        <v>0.9999810325528772</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="O9">
-        <v>0.9999928906909888</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="P9">
-        <v>1.000010670703172</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="Q9">
-        <v>0.9999995024183248</v>
+        <v>1.000009473069958</v>
       </c>
       <c r="R9">
-        <v>1.000000791319741</v>
+        <v>0.9999850230037707</v>
       </c>
       <c r="S9">
-        <v>1.000009151850668</v>
+        <v>0.9998265674377015</v>
       </c>
       <c r="T9">
-        <v>1.000000791319741</v>
+        <v>0.9999850230037707</v>
       </c>
       <c r="U9">
-        <v>1.000002122026221</v>
+        <v>0.999959799536029</v>
       </c>
       <c r="V9">
-        <v>0.9999979041315518</v>
+        <v>1.000039738795026</v>
       </c>
       <c r="W9">
-        <v>1.000001876035546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9999644642817596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999789305173188</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="D10">
-        <v>1.000031604123303</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="E10">
-        <v>0.9999921032779158</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="F10">
-        <v>0.9999789305173188</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="G10">
-        <v>1.000006792549905</v>
+        <v>0.9980098726036252</v>
       </c>
       <c r="H10">
-        <v>0.9999882704260605</v>
+        <v>0.993530045268928</v>
       </c>
       <c r="I10">
-        <v>0.9999789305173188</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="J10">
-        <v>1.000031604123303</v>
+        <v>0.9978618484041302</v>
       </c>
       <c r="K10">
-        <v>1.000006320064172</v>
+        <v>1.003693602984971</v>
       </c>
       <c r="L10">
-        <v>0.9999921032779158</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="M10">
-        <v>1.000020548938128</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="N10">
-        <v>0.9999789305173188</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="O10">
-        <v>0.9999921032779158</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="P10">
-        <v>1.00001185370061</v>
+        <v>0.9962685161726076</v>
       </c>
       <c r="Q10">
-        <v>0.9999994479139104</v>
+        <v>1.0001747542129</v>
       </c>
       <c r="R10">
-        <v>1.000000879306179</v>
+        <v>0.9997236015810845</v>
       </c>
       <c r="S10">
-        <v>1.000010166650375</v>
+        <v>0.9967996269164484</v>
       </c>
       <c r="T10">
-        <v>1.000000879306179</v>
+        <v>0.9997236015810845</v>
       </c>
       <c r="U10">
-        <v>1.000002357617111</v>
+        <v>0.999258163286846</v>
       </c>
       <c r="V10">
-        <v>0.9999976721971523</v>
+        <v>1.000733285109085</v>
       </c>
       <c r="W10">
-        <v>1.00000208414684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9993442292533222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999151902425126</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="D11">
-        <v>1.000127214607932</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="E11">
-        <v>0.9999681983447424</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="F11">
-        <v>0.9999151902425126</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="G11">
-        <v>1.000027334263847</v>
+        <v>0.9978616300395569</v>
       </c>
       <c r="H11">
-        <v>0.9999527803774153</v>
+        <v>0.9930480958903197</v>
       </c>
       <c r="I11">
-        <v>0.9999151902425126</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="J11">
-        <v>1.000127214607932</v>
+        <v>0.9977025781810431</v>
       </c>
       <c r="K11">
-        <v>1.000025442955418</v>
+        <v>1.00396872645385</v>
       </c>
       <c r="L11">
-        <v>0.9999681983447424</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="M11">
-        <v>1.000082716098616</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="N11">
-        <v>0.9999151902425126</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="O11">
-        <v>0.9999681983447424</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="P11">
-        <v>1.000047706476337</v>
+        <v>0.9959905571795149</v>
       </c>
       <c r="Q11">
-        <v>0.9999977663042946</v>
+        <v>1.000187773398105</v>
       </c>
       <c r="R11">
-        <v>1.000003534398396</v>
+        <v>0.9997030043975205</v>
       </c>
       <c r="S11">
-        <v>1.00004091573884</v>
+        <v>0.9965612308466909</v>
       </c>
       <c r="T11">
-        <v>1.000003534398396</v>
+        <v>0.9997030043975205</v>
       </c>
       <c r="U11">
-        <v>1.000009484364758</v>
+        <v>0.9992028978434011</v>
       </c>
       <c r="V11">
-        <v>0.9999906255403094</v>
+        <v>1.000787898041427</v>
       </c>
       <c r="W11">
-        <v>1.000008384404403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.9992953765465624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000320241021014</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="D12">
-        <v>0.9995196357321918</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="E12">
-        <v>1.000120094216192</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="F12">
-        <v>1.000320241021014</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="G12">
-        <v>0.9998967808468452</v>
+        <v>0.9993312680526325</v>
       </c>
       <c r="H12">
-        <v>1.0001783130487</v>
+        <v>0.997825938821054</v>
       </c>
       <c r="I12">
-        <v>1.000320241021014</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="J12">
-        <v>0.9995196357321918</v>
+        <v>0.99928152896842</v>
       </c>
       <c r="K12">
-        <v>0.9999039259782335</v>
+        <v>1.001241137431578</v>
       </c>
       <c r="L12">
-        <v>1.000120094216192</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="M12">
-        <v>0.9996876591446778</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="N12">
-        <v>1.000320241021014</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="O12">
-        <v>1.000120094216192</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="P12">
-        <v>0.9998198649741917</v>
+        <v>0.9987461325473672</v>
       </c>
       <c r="Q12">
-        <v>1.000008437531518</v>
+        <v>1.000058722621052</v>
       </c>
       <c r="R12">
-        <v>0.9999866569897993</v>
+        <v>0.9999071229824552</v>
       </c>
       <c r="S12">
-        <v>0.9998455035984096</v>
+        <v>0.9989245980210515</v>
       </c>
       <c r="T12">
-        <v>0.9999866569897993</v>
+        <v>0.9999071229824552</v>
       </c>
       <c r="U12">
-        <v>0.9999641879540607</v>
+        <v>0.9997507244789464</v>
       </c>
       <c r="V12">
-        <v>1.000035398567451</v>
+        <v>1.000246400353683</v>
       </c>
       <c r="W12">
-        <v>0.9999683430255056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9997796448118417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000086877963037</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="D13">
-        <v>0.9998696851522243</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="E13">
-        <v>1.000032580109521</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="F13">
-        <v>1.000086877963037</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="G13">
-        <v>0.999971997164996</v>
+        <v>1.000391400449006</v>
       </c>
       <c r="H13">
-        <v>1.000048373023327</v>
+        <v>1.001272457802474</v>
       </c>
       <c r="I13">
-        <v>1.000086877963037</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="J13">
-        <v>0.9998696851522243</v>
+        <v>1.000420511660059</v>
       </c>
       <c r="K13">
-        <v>0.9999739352794422</v>
+        <v>0.9992735782526495</v>
       </c>
       <c r="L13">
-        <v>1.000032580109521</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="M13">
-        <v>0.9999152752583488</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="N13">
-        <v>1.000086877963037</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="O13">
-        <v>1.000032580109521</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="P13">
-        <v>0.9999511326308728</v>
+        <v>1.000733880135701</v>
       </c>
       <c r="Q13">
-        <v>1.000002288637259</v>
+        <v>0.9999656324545917</v>
       </c>
       <c r="R13">
-        <v>0.9999963810749274</v>
+        <v>1.000054363136029</v>
       </c>
       <c r="S13">
-        <v>0.9999580874755805</v>
+        <v>1.000629423977154</v>
       </c>
       <c r="T13">
-        <v>0.9999963810749272</v>
+        <v>1.000054363136029</v>
       </c>
       <c r="U13">
-        <v>0.9999902850974444</v>
+        <v>1.000145900267037</v>
       </c>
       <c r="V13">
-        <v>1.000009603670563</v>
+        <v>0.9998557860409665</v>
       </c>
       <c r="W13">
-        <v>0.9999914130075522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.000128973852675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.969532040033978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D14">
-        <v>1.045701945667218</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E14">
-        <v>0.988574515860675</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="F14">
-        <v>0.969532040033978</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G14">
-        <v>1.009820251921844</v>
+        <v>0.9965616799999996</v>
       </c>
       <c r="H14">
-        <v>0.983035846683217</v>
+        <v>0.98882193</v>
       </c>
       <c r="I14">
-        <v>0.969532040033978</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="J14">
-        <v>1.045701945667218</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="K14">
-        <v>1.00914037468098</v>
+        <v>1.0063814</v>
       </c>
       <c r="L14">
-        <v>0.988574515860675</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M14">
-        <v>1.029715670191089</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="N14">
-        <v>0.969532040033978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="O14">
-        <v>0.988574515860675</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="P14">
-        <v>1.017138230763946</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="Q14">
-        <v>0.9991973838912598</v>
+        <v>1.000301919999999</v>
       </c>
       <c r="R14">
-        <v>1.001269500520624</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="S14">
-        <v>1.014698904483246</v>
+        <v>0.9944707499999992</v>
       </c>
       <c r="T14">
-        <v>1.001269500520624</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="U14">
-        <v>1.003407188370929</v>
+        <v>0.9987183374999993</v>
       </c>
       <c r="V14">
-        <v>0.9966321587035386</v>
+        <v>1.001266889999999</v>
       </c>
       <c r="W14">
-        <v>1.00301189511246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9988670324999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9918791945001935</v>
+        <v>0.95415576</v>
       </c>
       <c r="D15">
-        <v>1.012181208237609</v>
+        <v>0.98280841</v>
       </c>
       <c r="E15">
-        <v>0.9969546944137678</v>
+        <v>1.0687664</v>
       </c>
       <c r="F15">
-        <v>0.9918791945001935</v>
+        <v>1.0687664</v>
       </c>
       <c r="G15">
-        <v>1.002617452885799</v>
+        <v>1.0137533</v>
       </c>
       <c r="H15">
-        <v>0.9954784415153435</v>
+        <v>1.0447123</v>
       </c>
       <c r="I15">
-        <v>0.9918791945001935</v>
+        <v>0.98280841</v>
       </c>
       <c r="J15">
-        <v>1.012181208237609</v>
+        <v>1.0147762</v>
       </c>
       <c r="K15">
-        <v>1.002436247123406</v>
+        <v>0.9744745399999999</v>
       </c>
       <c r="L15">
-        <v>0.9969546944137678</v>
+        <v>0.95415576</v>
       </c>
       <c r="M15">
-        <v>1.007920291228564</v>
+        <v>0.95415576</v>
       </c>
       <c r="N15">
-        <v>0.9918791945001935</v>
+        <v>0.95415576</v>
       </c>
       <c r="O15">
-        <v>0.9969546944137678</v>
+        <v>0.98280841</v>
       </c>
       <c r="P15">
-        <v>1.004567951325689</v>
+        <v>1.025787405</v>
       </c>
       <c r="Q15">
-        <v>0.9997860736497832</v>
+        <v>0.998792305</v>
       </c>
       <c r="R15">
-        <v>1.00033836571719</v>
+        <v>1.00191019</v>
       </c>
       <c r="S15">
-        <v>1.003917785179059</v>
+        <v>1.022117003333333</v>
       </c>
       <c r="T15">
-        <v>1.00033836571719</v>
+        <v>1.00191019</v>
       </c>
       <c r="U15">
-        <v>1.000908137509342</v>
+        <v>1.0051266925</v>
       </c>
       <c r="V15">
-        <v>0.9991023489075127</v>
+        <v>0.9949325059999999</v>
       </c>
       <c r="W15">
-        <v>1.000802778039807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>1.004531915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000767756064</v>
+        <v>1.0114611</v>
       </c>
       <c r="D16">
-        <v>0.9999988471686717</v>
+        <v>1.0042979</v>
       </c>
       <c r="E16">
-        <v>1.000000291698404</v>
+        <v>0.98280841</v>
       </c>
       <c r="F16">
-        <v>1.000000767756064</v>
+        <v>0.98280841</v>
       </c>
       <c r="G16">
-        <v>0.9999997532448966</v>
+        <v>0.9965616799999999</v>
       </c>
       <c r="H16">
-        <v>1.000000429511621</v>
+        <v>0.98882193</v>
       </c>
       <c r="I16">
-        <v>1.000000767756064</v>
+        <v>1.0042979</v>
       </c>
       <c r="J16">
-        <v>0.9999988471686717</v>
+        <v>0.9963059399999998</v>
       </c>
       <c r="K16">
-        <v>0.999999769380299</v>
+        <v>1.0063814</v>
       </c>
       <c r="L16">
-        <v>1.000000291698404</v>
+        <v>1.0114611</v>
       </c>
       <c r="M16">
-        <v>0.999999250589936</v>
+        <v>1.0114611</v>
       </c>
       <c r="N16">
-        <v>1.000000767756064</v>
+        <v>1.0114611</v>
       </c>
       <c r="O16">
-        <v>1.000000291698404</v>
+        <v>1.0042979</v>
       </c>
       <c r="P16">
-        <v>0.9999995694335377</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="Q16">
-        <v>1.00000002247165</v>
+        <v>1.00030192</v>
       </c>
       <c r="R16">
-        <v>0.9999999688743797</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="S16">
-        <v>0.9999996307039907</v>
+        <v>0.99447075</v>
       </c>
       <c r="T16">
-        <v>0.9999999688743797</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="U16">
-        <v>0.9999999149670089</v>
+        <v>0.9987183374999999</v>
       </c>
       <c r="V16">
-        <v>1.00000008552482</v>
+        <v>1.00126689</v>
       </c>
       <c r="W16">
-        <v>0.999999925131037</v>
+        <v>0.9988670325</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284515201</v>
+        <v>0.96848208</v>
       </c>
       <c r="D17">
-        <v>0.9999755728388374</v>
+        <v>0.98818078</v>
       </c>
       <c r="E17">
-        <v>1.000006110863086</v>
+        <v>1.0472769</v>
       </c>
       <c r="F17">
-        <v>1.000016284515201</v>
+        <v>1.0472769</v>
       </c>
       <c r="G17">
-        <v>0.9999947517045973</v>
+        <v>1.0094554</v>
       </c>
       <c r="H17">
-        <v>1.000009069157193</v>
+        <v>1.0307397</v>
       </c>
       <c r="I17">
-        <v>1.000016284515201</v>
+        <v>0.98818078</v>
       </c>
       <c r="J17">
-        <v>0.9999755728388374</v>
+        <v>1.0101587</v>
       </c>
       <c r="K17">
-        <v>0.9999951147354407</v>
+        <v>0.9824512399999999</v>
       </c>
       <c r="L17">
-        <v>1.000006110863086</v>
+        <v>0.96848208</v>
       </c>
       <c r="M17">
-        <v>0.9999841174356137</v>
+        <v>0.96848208</v>
       </c>
       <c r="N17">
-        <v>1.000016284515201</v>
+        <v>0.96848208</v>
       </c>
       <c r="O17">
-        <v>1.000006110863086</v>
+        <v>0.98818078</v>
       </c>
       <c r="P17">
-        <v>0.9999908418509615</v>
+        <v>1.01772884</v>
       </c>
       <c r="Q17">
-        <v>1.000000431283842</v>
+        <v>0.99916974</v>
       </c>
       <c r="R17">
-        <v>0.9999993227390416</v>
+        <v>1.001313253333333</v>
       </c>
       <c r="S17">
-        <v>0.9999921451355068</v>
+        <v>1.01520546</v>
       </c>
       <c r="T17">
-        <v>0.9999993227390416</v>
+        <v>1.001313253333333</v>
       </c>
       <c r="U17">
-        <v>0.9999981799804305</v>
+        <v>1.003524615</v>
       </c>
       <c r="V17">
-        <v>1.000001800887385</v>
+        <v>0.9965161080000001</v>
       </c>
       <c r="W17">
-        <v>0.9999983915141319</v>
+        <v>1.0031156975</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057334495987</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="D18">
-        <v>0.9999139972541674</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="E18">
-        <v>1.000021505837732</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="F18">
-        <v>1.000057334495987</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="G18">
-        <v>0.9999815186970012</v>
+        <v>0.9989166939726029</v>
       </c>
       <c r="H18">
-        <v>1.000031927205301</v>
+        <v>0.9964781419178085</v>
       </c>
       <c r="I18">
-        <v>1.000057334495987</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="J18">
-        <v>0.9999139972541674</v>
+        <v>0.9988361117808215</v>
       </c>
       <c r="K18">
-        <v>0.9999827978303153</v>
+        <v>1.002010575616438</v>
       </c>
       <c r="L18">
-        <v>1.000021505837732</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="M18">
-        <v>0.9999440800137587</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="N18">
-        <v>1.000057334495987</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="O18">
-        <v>1.000021505837732</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="P18">
-        <v>0.99996775154595</v>
+        <v>0.997968810479452</v>
       </c>
       <c r="Q18">
-        <v>1.000001512267367</v>
+        <v>1.000095128150685</v>
       </c>
       <c r="R18">
-        <v>0.9999976125292956</v>
+        <v>0.9998495478082191</v>
       </c>
       <c r="S18">
-        <v>0.9999723405963005</v>
+        <v>0.9982579109132418</v>
       </c>
       <c r="T18">
-        <v>0.9999976125292954</v>
+        <v>0.9998495478082191</v>
       </c>
       <c r="U18">
-        <v>0.9999935890712219</v>
+        <v>0.9995961888013698</v>
       </c>
       <c r="V18">
-        <v>1.000006338156175</v>
+        <v>1.000399155534246</v>
       </c>
       <c r="W18">
-        <v>0.9999943333964995</v>
+        <v>0.9996430389041095</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134320971912</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="D19">
-        <v>0.9997985203512424</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="E19">
-        <v>1.000050377160312</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="F19">
-        <v>1.000134320971912</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="G19">
-        <v>0.9999567074473761</v>
+        <v>1.004705065263158</v>
       </c>
       <c r="H19">
-        <v>1.000074789357944</v>
+        <v>1.015296312631579</v>
       </c>
       <c r="I19">
-        <v>1.000134320971912</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="J19">
-        <v>0.9997985203512424</v>
+        <v>1.005055029473684</v>
       </c>
       <c r="K19">
-        <v>0.999959704693303</v>
+        <v>0.9912676147368424</v>
       </c>
       <c r="L19">
-        <v>1.000050377160312</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="M19">
-        <v>0.9998689964591353</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="N19">
-        <v>1.000134320971912</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="O19">
-        <v>1.000050377160312</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="P19">
-        <v>0.9999244487557772</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="Q19">
-        <v>1.000003542303844</v>
+        <v>0.9995868476315789</v>
       </c>
       <c r="R19">
-        <v>0.9999944061611555</v>
+        <v>1.000653484385965</v>
       </c>
       <c r="S19">
-        <v>0.9999352016529768</v>
+        <v>1.007566345789473</v>
       </c>
       <c r="T19">
-        <v>0.9999944061611554</v>
+        <v>1.000653484385965</v>
       </c>
       <c r="U19">
-        <v>0.9999849814827106</v>
+        <v>1.001753870657895</v>
       </c>
       <c r="V19">
-        <v>1.000014849380551</v>
+        <v>0.9982663855789473</v>
       </c>
       <c r="W19">
-        <v>0.9999867242001921</v>
+        <v>1.001550392631579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="D20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="E20">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="F20">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="G20">
+        <v>0.9990499384210526</v>
+      </c>
+      <c r="H20">
+        <v>0.9969113226315791</v>
+      </c>
+      <c r="I20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="J20">
+        <v>0.9989792663157895</v>
+      </c>
+      <c r="K20">
+        <v>1.001763281052632</v>
+      </c>
+      <c r="L20">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="M20">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="N20">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="O20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="P20">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="Q20">
+        <v>1.000083427631579</v>
+      </c>
+      <c r="R20">
+        <v>0.999868054210526</v>
+      </c>
+      <c r="S20">
+        <v>0.9984721842105261</v>
+      </c>
+      <c r="T20">
+        <v>0.999868054210526</v>
+      </c>
+      <c r="U20">
+        <v>0.9996458572368419</v>
+      </c>
+      <c r="V20">
+        <v>1.000350061052631</v>
+      </c>
+      <c r="W20">
+        <v>0.9996869449999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="D21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="E21">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="F21">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="G21">
+        <v>1.00914037468098</v>
+      </c>
+      <c r="H21">
+        <v>1.029715670191089</v>
+      </c>
+      <c r="I21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="J21">
+        <v>1.009820251921844</v>
+      </c>
+      <c r="K21">
+        <v>0.983035846683217</v>
+      </c>
+      <c r="L21">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="M21">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="N21">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="O21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="P21">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="Q21">
+        <v>0.9991973838912598</v>
+      </c>
+      <c r="R21">
+        <v>1.001269500520624</v>
+      </c>
+      <c r="S21">
+        <v>1.014698904483246</v>
+      </c>
+      <c r="T21">
+        <v>1.001269500520624</v>
+      </c>
+      <c r="U21">
+        <v>1.003407188370929</v>
+      </c>
+      <c r="V21">
+        <v>0.9966321587035386</v>
+      </c>
+      <c r="W21">
+        <v>1.00301189511246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="D22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="E22">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="F22">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="G22">
+        <v>1.002436247123406</v>
+      </c>
+      <c r="H22">
+        <v>1.007920291228564</v>
+      </c>
+      <c r="I22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="J22">
+        <v>1.002617452885799</v>
+      </c>
+      <c r="K22">
+        <v>0.9954784415153435</v>
+      </c>
+      <c r="L22">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="M22">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="N22">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="O22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="P22">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997860736497832</v>
+      </c>
+      <c r="R22">
+        <v>1.00033836571719</v>
+      </c>
+      <c r="S22">
+        <v>1.003917785179059</v>
+      </c>
+      <c r="T22">
+        <v>1.00033836571719</v>
+      </c>
+      <c r="U22">
+        <v>1.000908137509342</v>
+      </c>
+      <c r="V22">
+        <v>0.9991023489075127</v>
+      </c>
+      <c r="W22">
+        <v>1.000802778039807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="D23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="E23">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="F23">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="G23">
+        <v>0.9999039259782335</v>
+      </c>
+      <c r="H23">
+        <v>0.9996876591446778</v>
+      </c>
+      <c r="I23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="J23">
+        <v>0.9998967808468452</v>
+      </c>
+      <c r="K23">
+        <v>1.0001783130487</v>
+      </c>
+      <c r="L23">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="M23">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="N23">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="O23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="P23">
+        <v>0.9998198649741917</v>
+      </c>
+      <c r="Q23">
+        <v>1.000008437531518</v>
+      </c>
+      <c r="R23">
+        <v>0.9999866569897993</v>
+      </c>
+      <c r="S23">
+        <v>0.9998455035984096</v>
+      </c>
+      <c r="T23">
+        <v>0.9999866569897993</v>
+      </c>
+      <c r="U23">
+        <v>0.9999641879540607</v>
+      </c>
+      <c r="V23">
+        <v>1.000035398567451</v>
+      </c>
+      <c r="W23">
+        <v>0.9999683430255056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="D24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="E24">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="F24">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="G24">
+        <v>0.9999739352794422</v>
+      </c>
+      <c r="H24">
+        <v>0.9999152752583488</v>
+      </c>
+      <c r="I24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="J24">
+        <v>0.9999719971649959</v>
+      </c>
+      <c r="K24">
+        <v>1.000048373023327</v>
+      </c>
+      <c r="L24">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="M24">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="N24">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="O24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="P24">
+        <v>0.9999511326308728</v>
+      </c>
+      <c r="Q24">
+        <v>1.000002288637258</v>
+      </c>
+      <c r="R24">
+        <v>0.9999963810749274</v>
+      </c>
+      <c r="S24">
+        <v>0.9999580874755805</v>
+      </c>
+      <c r="T24">
+        <v>0.9999963810749272</v>
+      </c>
+      <c r="U24">
+        <v>0.9999902850974444</v>
+      </c>
+      <c r="V24">
+        <v>1.000009603670563</v>
+      </c>
+      <c r="W24">
+        <v>0.9999914130075521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.023819690784401</v>
+      </c>
+      <c r="D25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="E25">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="F25">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="G25">
+        <v>0.9928540917298576</v>
+      </c>
+      <c r="H25">
+        <v>0.9767684495888942</v>
+      </c>
+      <c r="I25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="J25">
+        <v>0.9923225778369981</v>
+      </c>
+      <c r="K25">
+        <v>1.013262485136027</v>
+      </c>
+      <c r="L25">
+        <v>1.023819690784401</v>
+      </c>
+      <c r="M25">
+        <v>1.023819690784401</v>
+      </c>
+      <c r="N25">
+        <v>1.023819690784401</v>
+      </c>
+      <c r="O25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="P25">
+        <v>0.9866014295563237</v>
+      </c>
+      <c r="Q25">
+        <v>1.000627486330967</v>
+      </c>
+      <c r="R25">
+        <v>0.9990075166323497</v>
+      </c>
+      <c r="S25">
+        <v>0.9885084789832151</v>
+      </c>
+      <c r="T25">
+        <v>0.9990075166323497</v>
+      </c>
+      <c r="U25">
+        <v>0.9973362819335118</v>
+      </c>
+      <c r="V25">
+        <v>1.00263296370369</v>
+      </c>
+      <c r="W25">
+        <v>0.9976453186267202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.006395918014905</v>
+      </c>
+      <c r="D26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="E26">
+        <v>0.9904061168911402</v>
+      </c>
+      <c r="F26">
+        <v>0.9904061168911402</v>
+      </c>
+      <c r="G26">
+        <v>0.9980812246031864</v>
+      </c>
+      <c r="H26">
+        <v>0.993761999521841</v>
+      </c>
+      <c r="I26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="J26">
+        <v>0.997938500438495</v>
+      </c>
+      <c r="K26">
+        <v>1.003561163670427</v>
+      </c>
+      <c r="L26">
+        <v>1.006395918014905</v>
+      </c>
+      <c r="M26">
+        <v>1.006395918014905</v>
+      </c>
+      <c r="N26">
+        <v>1.006395918014905</v>
+      </c>
+      <c r="O26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="P26">
+        <v>0.9964022976604388</v>
+      </c>
+      <c r="Q26">
+        <v>1.000168489434116</v>
+      </c>
+      <c r="R26">
+        <v>0.9997335044452608</v>
+      </c>
+      <c r="S26">
+        <v>0.9969143652531242</v>
+      </c>
+      <c r="T26">
+        <v>0.9997335044452608</v>
+      </c>
+      <c r="U26">
+        <v>0.9992847534435694</v>
+      </c>
+      <c r="V26">
+        <v>1.000706986357837</v>
+      </c>
+      <c r="W26">
+        <v>0.9993677349999337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="D27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="E27">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="F27">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="G27">
+        <v>0.9997950781118711</v>
+      </c>
+      <c r="H27">
+        <v>0.999333782218699</v>
+      </c>
+      <c r="I27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="J27">
+        <v>0.9997798326548842</v>
+      </c>
+      <c r="K27">
+        <v>1.00038033083073</v>
+      </c>
+      <c r="L27">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="M27">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="N27">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="O27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="P27">
+        <v>0.9996157795267397</v>
+      </c>
+      <c r="Q27">
+        <v>1.000018001398501</v>
+      </c>
+      <c r="R27">
+        <v>0.999971546776694</v>
+      </c>
+      <c r="S27">
+        <v>0.9996704639027879</v>
+      </c>
+      <c r="T27">
+        <v>0.999971546776694</v>
+      </c>
+      <c r="U27">
+        <v>0.9999236182462415</v>
+      </c>
+      <c r="V27">
+        <v>1.000075510852314</v>
+      </c>
+      <c r="W27">
+        <v>0.999932479286048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="D28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="E28">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="F28">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="G28">
+        <v>1.000206742516375</v>
+      </c>
+      <c r="H28">
+        <v>1.000672125815247</v>
+      </c>
+      <c r="I28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="J28">
+        <v>1.000222114366262</v>
+      </c>
+      <c r="K28">
+        <v>0.9996163043673572</v>
+      </c>
+      <c r="L28">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="M28">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="N28">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="O28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="P28">
+        <v>1.000387645310711</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999818483988038</v>
+      </c>
+      <c r="R28">
+        <v>1.000028716257024</v>
+      </c>
+      <c r="S28">
+        <v>1.000332468329228</v>
+      </c>
+      <c r="T28">
+        <v>1.000028716257024</v>
+      </c>
+      <c r="U28">
+        <v>1.000077065784334</v>
+      </c>
+      <c r="V28">
+        <v>0.999923824257397</v>
+      </c>
+      <c r="W28">
+        <v>1.000068127283457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9970030735112908</v>
+      </c>
+      <c r="D29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="E29">
+        <v>1.004495382678261</v>
+      </c>
+      <c r="F29">
+        <v>1.004495382678261</v>
+      </c>
+      <c r="G29">
+        <v>1.000899078994334</v>
+      </c>
+      <c r="H29">
+        <v>1.002922929995886</v>
+      </c>
+      <c r="I29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="J29">
+        <v>1.000965935724017</v>
+      </c>
+      <c r="K29">
+        <v>0.998331362652343</v>
+      </c>
+      <c r="L29">
+        <v>0.9970030735112908</v>
+      </c>
+      <c r="M29">
+        <v>0.9970030735112908</v>
+      </c>
+      <c r="N29">
+        <v>0.9970030735112908</v>
+      </c>
+      <c r="O29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="P29">
+        <v>1.001685777371927</v>
+      </c>
+      <c r="Q29">
+        <v>0.999921053894805</v>
+      </c>
+      <c r="R29">
+        <v>1.000124876085048</v>
+      </c>
+      <c r="S29">
+        <v>1.001445830155957</v>
+      </c>
+      <c r="T29">
+        <v>1.000124876085048</v>
+      </c>
+      <c r="U29">
+        <v>1.00033514099479</v>
+      </c>
+      <c r="V29">
+        <v>0.9996687274980905</v>
+      </c>
+      <c r="W29">
+        <v>1.000296263460915</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001057162099064</v>
+        <v>1.001871610715191</v>
       </c>
       <c r="D4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="E4">
-        <v>0.9984142526515971</v>
+        <v>0.997192584478829</v>
       </c>
       <c r="F4">
-        <v>0.9984142526515971</v>
+        <v>0.997192584478829</v>
       </c>
       <c r="G4">
-        <v>0.9996828502631481</v>
+        <v>0.9994385162656434</v>
       </c>
       <c r="H4">
-        <v>0.9989689382146675</v>
+        <v>0.9981746025113138</v>
       </c>
       <c r="I4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="J4">
-        <v>0.9996592623850588</v>
+        <v>0.9993967543059022</v>
       </c>
       <c r="K4">
-        <v>1.000588620668503</v>
+        <v>1.001042090195771</v>
       </c>
       <c r="L4">
-        <v>1.001057162099064</v>
+        <v>1.001871610715191</v>
       </c>
       <c r="M4">
-        <v>1.001057162099064</v>
+        <v>1.001871610715191</v>
       </c>
       <c r="N4">
-        <v>1.001057162099064</v>
+        <v>1.001871610715191</v>
       </c>
       <c r="O4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="P4">
-        <v>0.9994053469499368</v>
+        <v>0.9989472207596108</v>
       </c>
       <c r="Q4">
-        <v>1.000027851816668</v>
+        <v>1.000049305673147</v>
       </c>
       <c r="R4">
-        <v>0.9999559519996458</v>
+        <v>0.9999220174114711</v>
       </c>
       <c r="S4">
-        <v>0.9994899854283107</v>
+        <v>0.9990970652750413</v>
       </c>
       <c r="T4">
-        <v>0.9999559519996458</v>
+        <v>0.9999220174114711</v>
       </c>
       <c r="U4">
-        <v>0.9998817795959991</v>
+        <v>0.9997907016350789</v>
       </c>
       <c r="V4">
-        <v>1.000116856096612</v>
+        <v>1.000206883451102</v>
       </c>
       <c r="W4">
-        <v>0.999895496097324</v>
+        <v>0.9998149840691797</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001965226174351</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="D5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="E5">
-        <v>0.9970521631988478</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="F5">
-        <v>0.9970521631988478</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="G5">
-        <v>0.9994104319092214</v>
+        <v>0.9989027489004727</v>
       </c>
       <c r="H5">
-        <v>0.9980832996253617</v>
+        <v>0.9964328069176354</v>
       </c>
       <c r="I5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="J5">
-        <v>0.9993665807492768</v>
+        <v>0.9988211298422112</v>
       </c>
       <c r="K5">
-        <v>1.001094214423631</v>
+        <v>1.002036455582161</v>
       </c>
       <c r="L5">
-        <v>1.001965226174351</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="M5">
-        <v>1.001965226174351</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="N5">
-        <v>1.001965226174351</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="O5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="P5">
-        <v>0.9988945629574935</v>
+        <v>0.9979426637343749</v>
       </c>
       <c r="Q5">
-        <v>1.000051771732708</v>
+        <v>1.000096352383918</v>
       </c>
       <c r="R5">
-        <v>0.9999181173631126</v>
+        <v>0.9998476108769211</v>
       </c>
       <c r="S5">
-        <v>0.9990519022214213</v>
+        <v>0.9982354857703203</v>
       </c>
       <c r="T5">
-        <v>0.9999181173631126</v>
+        <v>0.9998476108769211</v>
       </c>
       <c r="U5">
-        <v>0.9997802332096537</v>
+        <v>0.9995909906182436</v>
       </c>
       <c r="V5">
-        <v>1.000217231802593</v>
+        <v>1.000404293526998</v>
       </c>
       <c r="W5">
-        <v>0.999805730189121</v>
+        <v>0.9996384435998585</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006536151903368</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="D6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="E6">
-        <v>0.9901958024679519</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="F6">
-        <v>0.9901958024679519</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="G6">
-        <v>0.9980391592460238</v>
+        <v>0.9996828502631481</v>
       </c>
       <c r="H6">
-        <v>0.9936252546539249</v>
+        <v>0.9989689382146675</v>
       </c>
       <c r="I6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="J6">
-        <v>0.9978933136236334</v>
+        <v>0.9996592623850588</v>
       </c>
       <c r="K6">
-        <v>1.003639249598744</v>
+        <v>1.000588620668503</v>
       </c>
       <c r="L6">
-        <v>1.006536151903368</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="M6">
-        <v>1.006536151903368</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="N6">
-        <v>1.006536151903368</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="O6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="P6">
-        <v>0.9963234272959325</v>
+        <v>0.9994053469499368</v>
       </c>
       <c r="Q6">
-        <v>1.000172182873773</v>
+        <v>1.000027851816668</v>
       </c>
       <c r="R6">
-        <v>0.9997276688317442</v>
+        <v>0.9999559519996458</v>
       </c>
       <c r="S6">
-        <v>0.9968467227384995</v>
+        <v>0.9994899854283107</v>
       </c>
       <c r="T6">
-        <v>0.9997276688317444</v>
+        <v>0.9999559519996458</v>
       </c>
       <c r="U6">
-        <v>0.9992690800297166</v>
+        <v>0.9998817795959991</v>
       </c>
       <c r="V6">
-        <v>1.000722494404447</v>
+        <v>1.000116856096612</v>
       </c>
       <c r="W6">
-        <v>0.9993538794676839</v>
+        <v>0.999895496097324</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000216580719323</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="D7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="E7">
-        <v>0.9996751277528185</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="F7">
-        <v>0.9996751277528185</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="G7">
-        <v>0.9999350254851215</v>
+        <v>0.9994104319092214</v>
       </c>
       <c r="H7">
-        <v>0.9997887664999148</v>
+        <v>0.9980832996253617</v>
       </c>
       <c r="I7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="J7">
-        <v>0.9999301932228801</v>
+        <v>0.9993665807492768</v>
       </c>
       <c r="K7">
-        <v>1.000120591847271</v>
+        <v>1.001094214423631</v>
       </c>
       <c r="L7">
-        <v>1.000216580719323</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="M7">
-        <v>1.000216580719323</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="N7">
-        <v>1.000216580719323</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="O7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="P7">
-        <v>0.9998781749869725</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="Q7">
-        <v>1.000005707722003</v>
+        <v>1.000051771732708</v>
       </c>
       <c r="R7">
-        <v>0.999990976897756</v>
+        <v>0.9999181173631126</v>
       </c>
       <c r="S7">
-        <v>0.9998955143989416</v>
+        <v>0.9990519022214213</v>
       </c>
       <c r="T7">
-        <v>0.9999909768977561</v>
+        <v>0.9999181173631126</v>
       </c>
       <c r="U7">
-        <v>0.9999757809790371</v>
+        <v>0.9997802332096537</v>
       </c>
       <c r="V7">
-        <v>1.000023940927094</v>
+        <v>1.000217231802593</v>
       </c>
       <c r="W7">
-        <v>0.9999785912461978</v>
+        <v>0.999805730189121</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000016284515201</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="D8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="E8">
-        <v>0.9999755728388378</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="F8">
-        <v>0.9999755728388378</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="G8">
-        <v>0.9999951147354407</v>
+        <v>0.9980391592460238</v>
       </c>
       <c r="H8">
-        <v>0.9999841174356137</v>
+        <v>0.9936252546539249</v>
       </c>
       <c r="I8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="J8">
-        <v>0.9999947517045974</v>
+        <v>0.9978933136236334</v>
       </c>
       <c r="K8">
-        <v>1.000009069157193</v>
+        <v>1.003639249598744</v>
       </c>
       <c r="L8">
-        <v>1.000016284515201</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="M8">
-        <v>1.000016284515201</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="N8">
-        <v>1.000016284515201</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="O8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="P8">
-        <v>0.9999908418509618</v>
+        <v>0.9963234272959325</v>
       </c>
       <c r="Q8">
-        <v>1.000000431283842</v>
+        <v>1.000172182873773</v>
       </c>
       <c r="R8">
-        <v>0.9999993227390416</v>
+        <v>0.9997276688317442</v>
       </c>
       <c r="S8">
-        <v>0.9999921451355069</v>
+        <v>0.9968467227384995</v>
       </c>
       <c r="T8">
-        <v>0.9999993227390416</v>
+        <v>0.9997276688317444</v>
       </c>
       <c r="U8">
-        <v>0.9999981799804305</v>
+        <v>0.9992690800297166</v>
       </c>
       <c r="V8">
-        <v>1.000001800887385</v>
+        <v>1.000722494404447</v>
       </c>
       <c r="W8">
-        <v>0.9999983915141319</v>
+        <v>0.9993538794676839</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000359495831011</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="D9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="E9">
-        <v>0.9994607561731895</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="F9">
-        <v>0.9994607561731895</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="G9">
-        <v>0.9998921514297636</v>
+        <v>0.9999350254851215</v>
       </c>
       <c r="H9">
-        <v>0.9996493815667122</v>
+        <v>0.9997887664999148</v>
       </c>
       <c r="I9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="J9">
-        <v>0.9998841291328039</v>
+        <v>0.9999301932228801</v>
       </c>
       <c r="K9">
-        <v>1.000200166106374</v>
+        <v>1.000120591847271</v>
       </c>
       <c r="L9">
-        <v>1.000359495831011</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="M9">
-        <v>1.000359495831011</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="N9">
-        <v>1.000359495831011</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="O9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="P9">
-        <v>0.9997977865901504</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="Q9">
-        <v>1.000009473069958</v>
+        <v>1.000005707722003</v>
       </c>
       <c r="R9">
-        <v>0.9999850230037707</v>
+        <v>0.999990976897756</v>
       </c>
       <c r="S9">
-        <v>0.9998265674377015</v>
+        <v>0.9998955143989416</v>
       </c>
       <c r="T9">
-        <v>0.9999850230037707</v>
+        <v>0.9999909768977561</v>
       </c>
       <c r="U9">
-        <v>0.999959799536029</v>
+        <v>0.9999757809790371</v>
       </c>
       <c r="V9">
-        <v>1.000039738795026</v>
+        <v>1.000023940927094</v>
       </c>
       <c r="W9">
-        <v>0.9999644642817596</v>
+        <v>0.9999785912461978</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006633772398039</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="D10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="E10">
-        <v>0.9900493723235453</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="F10">
-        <v>0.9900493723235453</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="G10">
-        <v>0.9980098726036252</v>
+        <v>0.9999951147354407</v>
       </c>
       <c r="H10">
-        <v>0.993530045268928</v>
+        <v>0.9999841174356137</v>
       </c>
       <c r="I10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="J10">
-        <v>0.9978618484041302</v>
+        <v>0.9999947517045974</v>
       </c>
       <c r="K10">
-        <v>1.003693602984971</v>
+        <v>1.000009069157193</v>
       </c>
       <c r="L10">
-        <v>1.006633772398039</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="M10">
-        <v>1.006633772398039</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="N10">
-        <v>1.006633772398039</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="O10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="P10">
-        <v>0.9962685161726076</v>
+        <v>0.9999908418509618</v>
       </c>
       <c r="Q10">
-        <v>1.0001747542129</v>
+        <v>1.000000431283842</v>
       </c>
       <c r="R10">
-        <v>0.9997236015810845</v>
+        <v>0.9999993227390416</v>
       </c>
       <c r="S10">
-        <v>0.9967996269164484</v>
+        <v>0.9999921451355069</v>
       </c>
       <c r="T10">
-        <v>0.9997236015810845</v>
+        <v>0.9999993227390416</v>
       </c>
       <c r="U10">
-        <v>0.999258163286846</v>
+        <v>0.9999981799804305</v>
       </c>
       <c r="V10">
-        <v>1.000733285109085</v>
+        <v>1.000001800887385</v>
       </c>
       <c r="W10">
-        <v>0.9993442292533222</v>
+        <v>0.9999983915141319</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.007127898833531</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="D11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="E11">
-        <v>0.9893081457438621</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="F11">
-        <v>0.9893081457438621</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="G11">
-        <v>0.9978616300395569</v>
+        <v>0.9998921514297636</v>
       </c>
       <c r="H11">
-        <v>0.9930480958903197</v>
+        <v>0.9996493815667122</v>
       </c>
       <c r="I11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="J11">
-        <v>0.9977025781810431</v>
+        <v>0.9998841291328039</v>
       </c>
       <c r="K11">
-        <v>1.00396872645385</v>
+        <v>1.000200166106374</v>
       </c>
       <c r="L11">
-        <v>1.007127898833531</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="M11">
-        <v>1.007127898833531</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="N11">
-        <v>1.007127898833531</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="O11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="P11">
-        <v>0.9959905571795149</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="Q11">
-        <v>1.000187773398105</v>
+        <v>1.000009473069958</v>
       </c>
       <c r="R11">
-        <v>0.9997030043975205</v>
+        <v>0.9999850230037707</v>
       </c>
       <c r="S11">
-        <v>0.9965612308466909</v>
+        <v>0.9998265674377015</v>
       </c>
       <c r="T11">
-        <v>0.9997030043975205</v>
+        <v>0.9999850230037707</v>
       </c>
       <c r="U11">
-        <v>0.9992028978434011</v>
+        <v>0.999959799536029</v>
       </c>
       <c r="V11">
-        <v>1.000787898041427</v>
+        <v>1.000039738795026</v>
       </c>
       <c r="W11">
-        <v>0.9992953765465624</v>
+        <v>0.9999644642817596</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002229103852631</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="D12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="E12">
-        <v>0.9966563488210515</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="F12">
-        <v>0.9966563488210515</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="G12">
-        <v>0.9993312680526325</v>
+        <v>0.9980098726036252</v>
       </c>
       <c r="H12">
-        <v>0.997825938821054</v>
+        <v>0.993530045268928</v>
       </c>
       <c r="I12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="J12">
-        <v>0.99928152896842</v>
+        <v>0.9978618484041302</v>
       </c>
       <c r="K12">
-        <v>1.001241137431578</v>
+        <v>1.003693602984971</v>
       </c>
       <c r="L12">
-        <v>1.002229103852631</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="M12">
-        <v>1.002229103852631</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="N12">
-        <v>1.002229103852631</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="O12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="P12">
-        <v>0.9987461325473672</v>
+        <v>0.9962685161726076</v>
       </c>
       <c r="Q12">
-        <v>1.000058722621052</v>
+        <v>1.0001747542129</v>
       </c>
       <c r="R12">
-        <v>0.9999071229824552</v>
+        <v>0.9997236015810845</v>
       </c>
       <c r="S12">
-        <v>0.9989245980210515</v>
+        <v>0.9967996269164484</v>
       </c>
       <c r="T12">
-        <v>0.9999071229824552</v>
+        <v>0.9997236015810845</v>
       </c>
       <c r="U12">
-        <v>0.9997507244789464</v>
+        <v>0.999258163286846</v>
       </c>
       <c r="V12">
-        <v>1.000246400353683</v>
+        <v>1.000733285109085</v>
       </c>
       <c r="W12">
-        <v>0.9997796448118417</v>
+        <v>0.9993442292533222</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9986953291366857</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="D13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="E13">
-        <v>1.001957007022278</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="F13">
-        <v>1.001957007022278</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="G13">
-        <v>1.000391400449006</v>
+        <v>0.9978616300395569</v>
       </c>
       <c r="H13">
-        <v>1.001272457802474</v>
+        <v>0.9930480958903197</v>
       </c>
       <c r="I13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="J13">
-        <v>1.000420511660059</v>
+        <v>0.9977025781810431</v>
       </c>
       <c r="K13">
-        <v>0.9992735782526495</v>
+        <v>1.00396872645385</v>
       </c>
       <c r="L13">
-        <v>0.9986953291366857</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="M13">
-        <v>0.9986953291366857</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="N13">
-        <v>0.9986953291366857</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="O13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="P13">
-        <v>1.000733880135701</v>
+        <v>0.9959905571795149</v>
       </c>
       <c r="Q13">
-        <v>0.9999656324545917</v>
+        <v>1.000187773398105</v>
       </c>
       <c r="R13">
-        <v>1.000054363136029</v>
+        <v>0.9997030043975205</v>
       </c>
       <c r="S13">
-        <v>1.000629423977154</v>
+        <v>0.9965612308466909</v>
       </c>
       <c r="T13">
-        <v>1.000054363136029</v>
+        <v>0.9997030043975205</v>
       </c>
       <c r="U13">
-        <v>1.000145900267037</v>
+        <v>0.9992028978434011</v>
       </c>
       <c r="V13">
-        <v>0.9998557860409665</v>
+        <v>1.000787898041427</v>
       </c>
       <c r="W13">
-        <v>1.000128973852675</v>
+        <v>0.9992953765465624</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.011461099999999</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="D14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="E14">
-        <v>0.9828084099999992</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="F14">
-        <v>0.9828084099999992</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="G14">
-        <v>0.9965616799999996</v>
+        <v>0.9993312680526325</v>
       </c>
       <c r="H14">
-        <v>0.98882193</v>
+        <v>0.997825938821054</v>
       </c>
       <c r="I14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="J14">
-        <v>0.9963059399999995</v>
+        <v>0.99928152896842</v>
       </c>
       <c r="K14">
-        <v>1.0063814</v>
+        <v>1.001241137431578</v>
       </c>
       <c r="L14">
-        <v>1.011461099999999</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="M14">
-        <v>1.011461099999999</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="N14">
-        <v>1.011461099999999</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="O14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="P14">
-        <v>0.9935531549999991</v>
+        <v>0.9987461325473672</v>
       </c>
       <c r="Q14">
-        <v>1.000301919999999</v>
+        <v>1.000058722621052</v>
       </c>
       <c r="R14">
-        <v>0.9995224699999992</v>
+        <v>0.9999071229824552</v>
       </c>
       <c r="S14">
-        <v>0.9944707499999992</v>
+        <v>0.9989245980210515</v>
       </c>
       <c r="T14">
-        <v>0.9995224699999992</v>
+        <v>0.9999071229824552</v>
       </c>
       <c r="U14">
-        <v>0.9987183374999993</v>
+        <v>0.9997507244789464</v>
       </c>
       <c r="V14">
-        <v>1.001266889999999</v>
+        <v>1.000246400353683</v>
       </c>
       <c r="W14">
-        <v>0.9988670324999995</v>
+        <v>0.9997796448118417</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.95415576</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="D15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="E15">
-        <v>1.0687664</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="F15">
-        <v>1.0687664</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="G15">
-        <v>1.0137533</v>
+        <v>1.000391400449006</v>
       </c>
       <c r="H15">
-        <v>1.0447123</v>
+        <v>1.001272457802474</v>
       </c>
       <c r="I15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="J15">
-        <v>1.0147762</v>
+        <v>1.000420511660059</v>
       </c>
       <c r="K15">
-        <v>0.9744745399999999</v>
+        <v>0.9992735782526495</v>
       </c>
       <c r="L15">
-        <v>0.95415576</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="M15">
-        <v>0.95415576</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="N15">
-        <v>0.95415576</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="O15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="P15">
-        <v>1.025787405</v>
+        <v>1.000733880135701</v>
       </c>
       <c r="Q15">
-        <v>0.998792305</v>
+        <v>0.9999656324545917</v>
       </c>
       <c r="R15">
-        <v>1.00191019</v>
+        <v>1.000054363136029</v>
       </c>
       <c r="S15">
-        <v>1.022117003333333</v>
+        <v>1.000629423977154</v>
       </c>
       <c r="T15">
-        <v>1.00191019</v>
+        <v>1.000054363136029</v>
       </c>
       <c r="U15">
-        <v>1.0051266925</v>
+        <v>1.000145900267037</v>
       </c>
       <c r="V15">
-        <v>0.9949325059999999</v>
+        <v>0.9998557860409665</v>
       </c>
       <c r="W15">
-        <v>1.004531915</v>
+        <v>1.000128973852675</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0114611</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E16">
-        <v>0.98280841</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="F16">
-        <v>0.98280841</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G16">
-        <v>0.9965616799999999</v>
+        <v>0.9965616799999996</v>
       </c>
       <c r="H16">
         <v>0.98882193</v>
       </c>
       <c r="I16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="J16">
-        <v>0.9963059399999998</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="K16">
         <v>1.0063814</v>
       </c>
       <c r="L16">
-        <v>1.0114611</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M16">
-        <v>1.0114611</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="N16">
-        <v>1.0114611</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="O16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="P16">
-        <v>0.9935531550000001</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="Q16">
-        <v>1.00030192</v>
+        <v>1.000301919999999</v>
       </c>
       <c r="R16">
-        <v>0.9995224700000001</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="S16">
-        <v>0.99447075</v>
+        <v>0.9944707499999992</v>
       </c>
       <c r="T16">
-        <v>0.9995224700000001</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="U16">
-        <v>0.9987183374999999</v>
+        <v>0.9987183374999993</v>
       </c>
       <c r="V16">
-        <v>1.00126689</v>
+        <v>1.001266889999999</v>
       </c>
       <c r="W16">
-        <v>0.9988670325</v>
+        <v>0.9988670324999995</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.96848208</v>
+        <v>0.95415576</v>
       </c>
       <c r="D17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="E17">
-        <v>1.0472769</v>
+        <v>1.0687664</v>
       </c>
       <c r="F17">
-        <v>1.0472769</v>
+        <v>1.0687664</v>
       </c>
       <c r="G17">
-        <v>1.0094554</v>
+        <v>1.0137533</v>
       </c>
       <c r="H17">
-        <v>1.0307397</v>
+        <v>1.0447123</v>
       </c>
       <c r="I17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="J17">
-        <v>1.0101587</v>
+        <v>1.0147762</v>
       </c>
       <c r="K17">
-        <v>0.9824512399999999</v>
+        <v>0.9744745399999999</v>
       </c>
       <c r="L17">
-        <v>0.96848208</v>
+        <v>0.95415576</v>
       </c>
       <c r="M17">
-        <v>0.96848208</v>
+        <v>0.95415576</v>
       </c>
       <c r="N17">
-        <v>0.96848208</v>
+        <v>0.95415576</v>
       </c>
       <c r="O17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="P17">
-        <v>1.01772884</v>
+        <v>1.025787405</v>
       </c>
       <c r="Q17">
-        <v>0.99916974</v>
+        <v>0.998792305</v>
       </c>
       <c r="R17">
-        <v>1.001313253333333</v>
+        <v>1.00191019</v>
       </c>
       <c r="S17">
-        <v>1.01520546</v>
+        <v>1.022117003333333</v>
       </c>
       <c r="T17">
-        <v>1.001313253333333</v>
+        <v>1.00191019</v>
       </c>
       <c r="U17">
-        <v>1.003524615</v>
+        <v>1.0051266925</v>
       </c>
       <c r="V17">
-        <v>0.9965161080000001</v>
+        <v>0.9949325059999999</v>
       </c>
       <c r="W17">
-        <v>1.0031156975</v>
+        <v>1.004531915</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003611022465753</v>
+        <v>1.0114611</v>
       </c>
       <c r="D18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="E18">
-        <v>0.9945834764383562</v>
+        <v>0.98280841</v>
       </c>
       <c r="F18">
-        <v>0.9945834764383562</v>
+        <v>0.98280841</v>
       </c>
       <c r="G18">
-        <v>0.9989166939726029</v>
+        <v>0.9965616799999999</v>
       </c>
       <c r="H18">
-        <v>0.9964781419178085</v>
+        <v>0.98882193</v>
       </c>
       <c r="I18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="J18">
-        <v>0.9988361117808215</v>
+        <v>0.9963059399999998</v>
       </c>
       <c r="K18">
-        <v>1.002010575616438</v>
+        <v>1.0063814</v>
       </c>
       <c r="L18">
-        <v>1.003611022465753</v>
+        <v>1.0114611</v>
       </c>
       <c r="M18">
-        <v>1.003611022465753</v>
+        <v>1.0114611</v>
       </c>
       <c r="N18">
-        <v>1.003611022465753</v>
+        <v>1.0114611</v>
       </c>
       <c r="O18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="P18">
-        <v>0.997968810479452</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="Q18">
-        <v>1.000095128150685</v>
+        <v>1.00030192</v>
       </c>
       <c r="R18">
-        <v>0.9998495478082191</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="S18">
-        <v>0.9982579109132418</v>
+        <v>0.99447075</v>
       </c>
       <c r="T18">
-        <v>0.9998495478082191</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="U18">
-        <v>0.9995961888013698</v>
+        <v>0.9987183374999999</v>
       </c>
       <c r="V18">
-        <v>1.000399155534246</v>
+        <v>1.00126689</v>
       </c>
       <c r="W18">
-        <v>0.9996430389041095</v>
+        <v>0.9988670325</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.984316445263158</v>
+        <v>0.96848208</v>
       </c>
       <c r="D19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="E19">
-        <v>1.023525342105263</v>
+        <v>1.0472769</v>
       </c>
       <c r="F19">
-        <v>1.023525342105263</v>
+        <v>1.0472769</v>
       </c>
       <c r="G19">
-        <v>1.004705065263158</v>
+        <v>1.0094554</v>
       </c>
       <c r="H19">
-        <v>1.015296312631579</v>
+        <v>1.0307397</v>
       </c>
       <c r="I19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="J19">
-        <v>1.005055029473684</v>
+        <v>1.0101587</v>
       </c>
       <c r="K19">
-        <v>0.9912676147368424</v>
+        <v>0.9824512399999999</v>
       </c>
       <c r="L19">
-        <v>0.984316445263158</v>
+        <v>0.96848208</v>
       </c>
       <c r="M19">
-        <v>0.984316445263158</v>
+        <v>0.96848208</v>
       </c>
       <c r="N19">
-        <v>0.984316445263158</v>
+        <v>0.96848208</v>
       </c>
       <c r="O19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="P19">
-        <v>1.008822003947368</v>
+        <v>1.01772884</v>
       </c>
       <c r="Q19">
-        <v>0.9995868476315789</v>
+        <v>0.99916974</v>
       </c>
       <c r="R19">
-        <v>1.000653484385965</v>
+        <v>1.001313253333333</v>
       </c>
       <c r="S19">
-        <v>1.007566345789473</v>
+        <v>1.01520546</v>
       </c>
       <c r="T19">
-        <v>1.000653484385965</v>
+        <v>1.001313253333333</v>
       </c>
       <c r="U19">
-        <v>1.001753870657895</v>
+        <v>1.003524615</v>
       </c>
       <c r="V19">
-        <v>0.9982663855789473</v>
+        <v>0.9965161080000001</v>
       </c>
       <c r="W19">
-        <v>1.001550392631579</v>
+        <v>1.0031156975</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003166876315789</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="D20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="E20">
-        <v>0.9952496973684208</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="F20">
-        <v>0.9952496973684208</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="G20">
-        <v>0.9990499384210526</v>
+        <v>0.9989166939726029</v>
       </c>
       <c r="H20">
-        <v>0.9969113226315791</v>
+        <v>0.9964781419178085</v>
       </c>
       <c r="I20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="J20">
-        <v>0.9989792663157895</v>
+        <v>0.9988361117808215</v>
       </c>
       <c r="K20">
-        <v>1.001763281052632</v>
+        <v>1.002010575616438</v>
       </c>
       <c r="L20">
-        <v>1.003166876315789</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="M20">
-        <v>1.003166876315789</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="N20">
-        <v>1.003166876315789</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="O20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="P20">
-        <v>0.9982186431578944</v>
+        <v>0.997968810479452</v>
       </c>
       <c r="Q20">
-        <v>1.000083427631579</v>
+        <v>1.000095128150685</v>
       </c>
       <c r="R20">
-        <v>0.999868054210526</v>
+        <v>0.9998495478082191</v>
       </c>
       <c r="S20">
-        <v>0.9984721842105261</v>
+        <v>0.9982579109132418</v>
       </c>
       <c r="T20">
-        <v>0.999868054210526</v>
+        <v>0.9998495478082191</v>
       </c>
       <c r="U20">
-        <v>0.9996458572368419</v>
+        <v>0.9995961888013698</v>
       </c>
       <c r="V20">
-        <v>1.000350061052631</v>
+        <v>1.000399155534246</v>
       </c>
       <c r="W20">
-        <v>0.9996869449999999</v>
+        <v>0.9996430389041095</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.969532040033978</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="D21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="E21">
-        <v>1.045701945667218</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="F21">
-        <v>1.045701945667218</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="G21">
-        <v>1.00914037468098</v>
+        <v>1.004705065263158</v>
       </c>
       <c r="H21">
-        <v>1.029715670191089</v>
+        <v>1.015296312631579</v>
       </c>
       <c r="I21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="J21">
-        <v>1.009820251921844</v>
+        <v>1.005055029473684</v>
       </c>
       <c r="K21">
-        <v>0.983035846683217</v>
+        <v>0.9912676147368424</v>
       </c>
       <c r="L21">
-        <v>0.969532040033978</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="M21">
-        <v>0.969532040033978</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="N21">
-        <v>0.969532040033978</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="O21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="P21">
-        <v>1.017138230763946</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="Q21">
-        <v>0.9991973838912598</v>
+        <v>0.9995868476315789</v>
       </c>
       <c r="R21">
-        <v>1.001269500520624</v>
+        <v>1.000653484385965</v>
       </c>
       <c r="S21">
-        <v>1.014698904483246</v>
+        <v>1.007566345789473</v>
       </c>
       <c r="T21">
-        <v>1.001269500520624</v>
+        <v>1.000653484385965</v>
       </c>
       <c r="U21">
-        <v>1.003407188370929</v>
+        <v>1.001753870657895</v>
       </c>
       <c r="V21">
-        <v>0.9966321587035386</v>
+        <v>0.9982663855789473</v>
       </c>
       <c r="W21">
-        <v>1.00301189511246</v>
+        <v>1.001550392631579</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9918791945001935</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="D22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="E22">
-        <v>1.012181208237609</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="F22">
-        <v>1.012181208237609</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="G22">
-        <v>1.002436247123406</v>
+        <v>0.9990499384210526</v>
       </c>
       <c r="H22">
-        <v>1.007920291228564</v>
+        <v>0.9969113226315791</v>
       </c>
       <c r="I22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="J22">
-        <v>1.002617452885799</v>
+        <v>0.9989792663157895</v>
       </c>
       <c r="K22">
-        <v>0.9954784415153435</v>
+        <v>1.001763281052632</v>
       </c>
       <c r="L22">
-        <v>0.9918791945001935</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="M22">
-        <v>0.9918791945001935</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="N22">
-        <v>0.9918791945001935</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="O22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="P22">
-        <v>1.004567951325689</v>
+        <v>0.9982186431578944</v>
       </c>
       <c r="Q22">
-        <v>0.9997860736497832</v>
+        <v>1.000083427631579</v>
       </c>
       <c r="R22">
-        <v>1.00033836571719</v>
+        <v>0.999868054210526</v>
       </c>
       <c r="S22">
-        <v>1.003917785179059</v>
+        <v>0.9984721842105261</v>
       </c>
       <c r="T22">
-        <v>1.00033836571719</v>
+        <v>0.999868054210526</v>
       </c>
       <c r="U22">
-        <v>1.000908137509342</v>
+        <v>0.9996458572368419</v>
       </c>
       <c r="V22">
-        <v>0.9991023489075127</v>
+        <v>1.000350061052631</v>
       </c>
       <c r="W22">
-        <v>1.000802778039807</v>
+        <v>0.9996869449999999</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000320241021014</v>
+        <v>0.969532040033978</v>
       </c>
       <c r="D23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="E23">
-        <v>0.9995196357321918</v>
+        <v>1.045701945667218</v>
       </c>
       <c r="F23">
-        <v>0.9995196357321918</v>
+        <v>1.045701945667218</v>
       </c>
       <c r="G23">
-        <v>0.9999039259782335</v>
+        <v>1.00914037468098</v>
       </c>
       <c r="H23">
-        <v>0.9996876591446778</v>
+        <v>1.029715670191089</v>
       </c>
       <c r="I23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="J23">
-        <v>0.9998967808468452</v>
+        <v>1.009820251921844</v>
       </c>
       <c r="K23">
-        <v>1.0001783130487</v>
+        <v>0.983035846683217</v>
       </c>
       <c r="L23">
-        <v>1.000320241021014</v>
+        <v>0.969532040033978</v>
       </c>
       <c r="M23">
-        <v>1.000320241021014</v>
+        <v>0.969532040033978</v>
       </c>
       <c r="N23">
-        <v>1.000320241021014</v>
+        <v>0.969532040033978</v>
       </c>
       <c r="O23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="P23">
-        <v>0.9998198649741917</v>
+        <v>1.017138230763946</v>
       </c>
       <c r="Q23">
-        <v>1.000008437531518</v>
+        <v>0.9991973838912598</v>
       </c>
       <c r="R23">
-        <v>0.9999866569897993</v>
+        <v>1.001269500520624</v>
       </c>
       <c r="S23">
-        <v>0.9998455035984096</v>
+        <v>1.014698904483246</v>
       </c>
       <c r="T23">
-        <v>0.9999866569897993</v>
+        <v>1.001269500520624</v>
       </c>
       <c r="U23">
-        <v>0.9999641879540607</v>
+        <v>1.003407188370929</v>
       </c>
       <c r="V23">
-        <v>1.000035398567451</v>
+        <v>0.9966321587035386</v>
       </c>
       <c r="W23">
-        <v>0.9999683430255056</v>
+        <v>1.00301189511246</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000086877963037</v>
+        <v>0.9918791945001935</v>
       </c>
       <c r="D24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="E24">
-        <v>0.9998696851522243</v>
+        <v>1.012181208237609</v>
       </c>
       <c r="F24">
-        <v>0.9998696851522243</v>
+        <v>1.012181208237609</v>
       </c>
       <c r="G24">
-        <v>0.9999739352794422</v>
+        <v>1.002436247123406</v>
       </c>
       <c r="H24">
-        <v>0.9999152752583488</v>
+        <v>1.007920291228564</v>
       </c>
       <c r="I24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="J24">
-        <v>0.9999719971649959</v>
+        <v>1.002617452885799</v>
       </c>
       <c r="K24">
-        <v>1.000048373023327</v>
+        <v>0.9954784415153435</v>
       </c>
       <c r="L24">
-        <v>1.000086877963037</v>
+        <v>0.9918791945001935</v>
       </c>
       <c r="M24">
-        <v>1.000086877963037</v>
+        <v>0.9918791945001935</v>
       </c>
       <c r="N24">
-        <v>1.000086877963037</v>
+        <v>0.9918791945001935</v>
       </c>
       <c r="O24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="P24">
-        <v>0.9999511326308728</v>
+        <v>1.004567951325689</v>
       </c>
       <c r="Q24">
-        <v>1.000002288637258</v>
+        <v>0.9997860736497832</v>
       </c>
       <c r="R24">
-        <v>0.9999963810749274</v>
+        <v>1.00033836571719</v>
       </c>
       <c r="S24">
-        <v>0.9999580874755805</v>
+        <v>1.003917785179059</v>
       </c>
       <c r="T24">
-        <v>0.9999963810749272</v>
+        <v>1.00033836571719</v>
       </c>
       <c r="U24">
-        <v>0.9999902850974444</v>
+        <v>1.000908137509342</v>
       </c>
       <c r="V24">
-        <v>1.000009603670563</v>
+        <v>0.9991023489075127</v>
       </c>
       <c r="W24">
-        <v>0.9999914130075521</v>
+        <v>1.000802778039807</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.023819690784401</v>
+        <v>1.000320241021014</v>
       </c>
       <c r="D25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="E25">
-        <v>0.9642704642877111</v>
+        <v>0.9995196357321918</v>
       </c>
       <c r="F25">
-        <v>0.9642704642877111</v>
+        <v>0.9995196357321918</v>
       </c>
       <c r="G25">
-        <v>0.9928540917298576</v>
+        <v>0.9999039259782335</v>
       </c>
       <c r="H25">
-        <v>0.9767684495888942</v>
+        <v>0.9996876591446778</v>
       </c>
       <c r="I25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="J25">
-        <v>0.9923225778369981</v>
+        <v>0.9998967808468452</v>
       </c>
       <c r="K25">
-        <v>1.013262485136027</v>
+        <v>1.0001783130487</v>
       </c>
       <c r="L25">
-        <v>1.023819690784401</v>
+        <v>1.000320241021014</v>
       </c>
       <c r="M25">
-        <v>1.023819690784401</v>
+        <v>1.000320241021014</v>
       </c>
       <c r="N25">
-        <v>1.023819690784401</v>
+        <v>1.000320241021014</v>
       </c>
       <c r="O25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="P25">
-        <v>0.9866014295563237</v>
+        <v>0.9998198649741917</v>
       </c>
       <c r="Q25">
-        <v>1.000627486330967</v>
+        <v>1.000008437531518</v>
       </c>
       <c r="R25">
-        <v>0.9990075166323497</v>
+        <v>0.9999866569897993</v>
       </c>
       <c r="S25">
-        <v>0.9885084789832151</v>
+        <v>0.9998455035984096</v>
       </c>
       <c r="T25">
-        <v>0.9990075166323497</v>
+        <v>0.9999866569897993</v>
       </c>
       <c r="U25">
-        <v>0.9973362819335118</v>
+        <v>0.9999641879540607</v>
       </c>
       <c r="V25">
-        <v>1.00263296370369</v>
+        <v>1.000035398567451</v>
       </c>
       <c r="W25">
-        <v>0.9976453186267202</v>
+        <v>0.9999683430255056</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.006395918014905</v>
+        <v>1.000086877963037</v>
       </c>
       <c r="D26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="E26">
-        <v>0.9904061168911402</v>
+        <v>0.9998696851522243</v>
       </c>
       <c r="F26">
-        <v>0.9904061168911402</v>
+        <v>0.9998696851522243</v>
       </c>
       <c r="G26">
-        <v>0.9980812246031864</v>
+        <v>0.9999739352794422</v>
       </c>
       <c r="H26">
-        <v>0.993761999521841</v>
+        <v>0.9999152752583488</v>
       </c>
       <c r="I26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="J26">
-        <v>0.997938500438495</v>
+        <v>0.9999719971649959</v>
       </c>
       <c r="K26">
-        <v>1.003561163670427</v>
+        <v>1.000048373023327</v>
       </c>
       <c r="L26">
-        <v>1.006395918014905</v>
+        <v>1.000086877963037</v>
       </c>
       <c r="M26">
-        <v>1.006395918014905</v>
+        <v>1.000086877963037</v>
       </c>
       <c r="N26">
-        <v>1.006395918014905</v>
+        <v>1.000086877963037</v>
       </c>
       <c r="O26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="P26">
-        <v>0.9964022976604388</v>
+        <v>0.9999511326308728</v>
       </c>
       <c r="Q26">
-        <v>1.000168489434116</v>
+        <v>1.000002288637258</v>
       </c>
       <c r="R26">
-        <v>0.9997335044452608</v>
+        <v>0.9999963810749274</v>
       </c>
       <c r="S26">
-        <v>0.9969143652531242</v>
+        <v>0.9999580874755805</v>
       </c>
       <c r="T26">
-        <v>0.9997335044452608</v>
+        <v>0.9999963810749272</v>
       </c>
       <c r="U26">
-        <v>0.9992847534435694</v>
+        <v>0.9999902850974444</v>
       </c>
       <c r="V26">
-        <v>1.000706986357837</v>
+        <v>1.000009603670563</v>
       </c>
       <c r="W26">
-        <v>0.9993677349999337</v>
+        <v>0.9999914130075521</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000683081276603</v>
+        <v>1.023819690784401</v>
       </c>
       <c r="D27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="E27">
-        <v>0.9989753889113621</v>
+        <v>0.9642704642877111</v>
       </c>
       <c r="F27">
-        <v>0.9989753889113621</v>
+        <v>0.9642704642877111</v>
       </c>
       <c r="G27">
-        <v>0.9997950781118711</v>
+        <v>0.9928540917298576</v>
       </c>
       <c r="H27">
-        <v>0.999333782218699</v>
+        <v>0.9767684495888942</v>
       </c>
       <c r="I27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="J27">
-        <v>0.9997798326548842</v>
+        <v>0.9923225778369981</v>
       </c>
       <c r="K27">
-        <v>1.00038033083073</v>
+        <v>1.013262485136027</v>
       </c>
       <c r="L27">
-        <v>1.000683081276603</v>
+        <v>1.023819690784401</v>
       </c>
       <c r="M27">
-        <v>1.000683081276603</v>
+        <v>1.023819690784401</v>
       </c>
       <c r="N27">
-        <v>1.000683081276603</v>
+        <v>1.023819690784401</v>
       </c>
       <c r="O27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="P27">
-        <v>0.9996157795267397</v>
+        <v>0.9866014295563237</v>
       </c>
       <c r="Q27">
-        <v>1.000018001398501</v>
+        <v>1.000627486330967</v>
       </c>
       <c r="R27">
-        <v>0.999971546776694</v>
+        <v>0.9990075166323497</v>
       </c>
       <c r="S27">
-        <v>0.9996704639027879</v>
+        <v>0.9885084789832151</v>
       </c>
       <c r="T27">
-        <v>0.999971546776694</v>
+        <v>0.9990075166323497</v>
       </c>
       <c r="U27">
-        <v>0.9999236182462415</v>
+        <v>0.9973362819335118</v>
       </c>
       <c r="V27">
-        <v>1.000075510852314</v>
+        <v>1.00263296370369</v>
       </c>
       <c r="W27">
-        <v>0.999932479286048</v>
+        <v>0.9976453186267202</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9993108581496504</v>
+        <v>1.006395918014905</v>
       </c>
       <c r="D28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="E28">
-        <v>1.001033708190077</v>
+        <v>0.9904061168911402</v>
       </c>
       <c r="F28">
-        <v>1.001033708190077</v>
+        <v>0.9904061168911402</v>
       </c>
       <c r="G28">
-        <v>1.000206742516375</v>
+        <v>0.9980812246031864</v>
       </c>
       <c r="H28">
-        <v>1.000672125815247</v>
+        <v>0.993761999521841</v>
       </c>
       <c r="I28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="J28">
-        <v>1.000222114366262</v>
+        <v>0.997938500438495</v>
       </c>
       <c r="K28">
-        <v>0.9996163043673572</v>
+        <v>1.003561163670427</v>
       </c>
       <c r="L28">
-        <v>0.9993108581496504</v>
+        <v>1.006395918014905</v>
       </c>
       <c r="M28">
-        <v>0.9993108581496504</v>
+        <v>1.006395918014905</v>
       </c>
       <c r="N28">
-        <v>0.9993108581496504</v>
+        <v>1.006395918014905</v>
       </c>
       <c r="O28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="P28">
-        <v>1.000387645310711</v>
+        <v>0.9964022976604388</v>
       </c>
       <c r="Q28">
-        <v>0.9999818483988038</v>
+        <v>1.000168489434116</v>
       </c>
       <c r="R28">
-        <v>1.000028716257024</v>
+        <v>0.9997335044452608</v>
       </c>
       <c r="S28">
-        <v>1.000332468329228</v>
+        <v>0.9969143652531242</v>
       </c>
       <c r="T28">
-        <v>1.000028716257024</v>
+        <v>0.9997335044452608</v>
       </c>
       <c r="U28">
-        <v>1.000077065784334</v>
+        <v>0.9992847534435694</v>
       </c>
       <c r="V28">
-        <v>0.999923824257397</v>
+        <v>1.000706986357837</v>
       </c>
       <c r="W28">
-        <v>1.000068127283457</v>
+        <v>0.9993677349999337</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="D29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="E29">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="F29">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="G29">
+        <v>0.9997950781118711</v>
+      </c>
+      <c r="H29">
+        <v>0.999333782218699</v>
+      </c>
+      <c r="I29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="J29">
+        <v>0.9997798326548842</v>
+      </c>
+      <c r="K29">
+        <v>1.00038033083073</v>
+      </c>
+      <c r="L29">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="M29">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="N29">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="O29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="P29">
+        <v>0.9996157795267397</v>
+      </c>
+      <c r="Q29">
+        <v>1.000018001398501</v>
+      </c>
+      <c r="R29">
+        <v>0.999971546776694</v>
+      </c>
+      <c r="S29">
+        <v>0.9996704639027879</v>
+      </c>
+      <c r="T29">
+        <v>0.999971546776694</v>
+      </c>
+      <c r="U29">
+        <v>0.9999236182462415</v>
+      </c>
+      <c r="V29">
+        <v>1.000075510852314</v>
+      </c>
+      <c r="W29">
+        <v>0.999932479286048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="D30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="E30">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="F30">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="G30">
+        <v>1.000206742516375</v>
+      </c>
+      <c r="H30">
+        <v>1.000672125815247</v>
+      </c>
+      <c r="I30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="J30">
+        <v>1.000222114366262</v>
+      </c>
+      <c r="K30">
+        <v>0.9996163043673572</v>
+      </c>
+      <c r="L30">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="M30">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="N30">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="O30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="P30">
+        <v>1.000387645310711</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999818483988038</v>
+      </c>
+      <c r="R30">
+        <v>1.000028716257024</v>
+      </c>
+      <c r="S30">
+        <v>1.000332468329228</v>
+      </c>
+      <c r="T30">
+        <v>1.000028716257024</v>
+      </c>
+      <c r="U30">
+        <v>1.000077065784334</v>
+      </c>
+      <c r="V30">
+        <v>0.999923824257397</v>
+      </c>
+      <c r="W30">
+        <v>1.000068127283457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9970030735112908</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.998876172065593</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.004495382678261</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.004495382678261</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.000899078994334</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.002922929995886</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.998876172065593</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.000965935724017</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.998331362652343</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9970030735112908</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9970030735112908</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9970030735112908</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.998876172065593</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001685777371927</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.999921053894805</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000124876085048</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001445830155957</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000124876085048</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.00033514099479</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9996687274980905</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000296263460915</v>
       </c>
     </row>
